--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
@@ -683,85 +683,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1331171958662623</v>
+        <v>0.122726718628815</v>
       </c>
       <c r="E2">
-        <v>0.005823602207493439</v>
+        <v>0.01311574586843905</v>
       </c>
       <c r="F2">
-        <v>0.146611740865868</v>
+        <v>0.1343467079923847</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003308483122319739</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002776319182406289</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03594461592664443</v>
+        <v>0.03905258620256639</v>
       </c>
       <c r="M2">
-        <v>0.0184067265993822</v>
+        <v>0.0239509219783778</v>
       </c>
       <c r="N2">
-        <v>0.1421412447461528</v>
+        <v>0.130497217893794</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000850249077856523</v>
       </c>
       <c r="Q2">
-        <v>0.01349153145915159</v>
+        <v>0.01971850693577964</v>
       </c>
       <c r="R2">
-        <v>0.04773208950185645</v>
+        <v>0.04920263702468185</v>
       </c>
       <c r="S2">
-        <v>0.1401666395175499</v>
+        <v>0.1287969092317171</v>
       </c>
       <c r="T2">
-        <v>0.01226389577420914</v>
+        <v>0.01866140470656135</v>
       </c>
       <c r="U2">
-        <v>0.03823009365066198</v>
+        <v>0.04102058340769893</v>
       </c>
       <c r="V2">
-        <v>0.06638765525501385</v>
+        <v>0.06526671889105058</v>
       </c>
       <c r="W2">
-        <v>0.02137546217872988</v>
+        <v>0.02650726425270263</v>
       </c>
       <c r="X2">
-        <v>0.05402735103370124</v>
+        <v>0.05462341053301895</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.1242801554173228</v>
+        <v>0.1151172500602111</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.004658711781692435</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0008858561456110773</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.001546625900381074</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.003369171181933632</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1322594850399036</v>
+        <v>0.1288952278538678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1406990439050197</v>
+        <v>0.1369421824239991</v>
       </c>
       <c r="G3">
-        <v>0.01019179423398317</v>
+        <v>0.01250606840903117</v>
       </c>
       <c r="H3">
-        <v>0.002963224719556238</v>
+        <v>0.005613768536574537</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -814,55 +814,55 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03602714371673011</v>
+        <v>0.03713956962796854</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1602398646078278</v>
+        <v>0.1555739733708611</v>
       </c>
       <c r="O3">
-        <v>0.00587677650074706</v>
+        <v>0.008391783264083082</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00781303421535179</v>
+        <v>0.01023796718370626</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1908142222560892</v>
+        <v>0.1847260263322362</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07888585070747095</v>
+        <v>0.07800450979854914</v>
       </c>
       <c r="V3">
-        <v>0.004690765684915261</v>
+        <v>0.007260945111613887</v>
       </c>
       <c r="W3">
-        <v>0.09644656129453208</v>
+        <v>0.09474830441764875</v>
       </c>
       <c r="X3">
-        <v>0.01762989566923217</v>
+        <v>0.01959815287625102</v>
       </c>
       <c r="Y3">
-        <v>0.004309507020818002</v>
+        <v>0.006897422420618662</v>
       </c>
       <c r="Z3">
-        <v>0.1046637898627124</v>
+        <v>0.1025832713913193</v>
       </c>
       <c r="AA3">
-        <v>0.006489040565110397</v>
+        <v>0.00897556509315715</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.001905261888514233</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06663486524591113</v>
+        <v>0.06638072120141608</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1727373926859226</v>
+        <v>0.1659617965865109</v>
       </c>
       <c r="G4">
-        <v>0.02557076284951977</v>
+        <v>0.02784056975527577</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -918,58 +918,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002449898481586343</v>
+        <v>0.006140798853084331</v>
       </c>
       <c r="L4">
-        <v>0.03385597157904392</v>
+        <v>0.03561653904632267</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1918617609668229</v>
+        <v>0.1839107107681206</v>
       </c>
       <c r="O4">
-        <v>0.0322600932851816</v>
+        <v>0.03411874930916124</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0201666074228898</v>
+        <v>0.02276857362175983</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1551396586254308</v>
+        <v>0.1494456840643519</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0949170166081893</v>
+        <v>0.0929245473930401</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.07447265087109206</v>
+        <v>0.07373676765973097</v>
       </c>
       <c r="X4">
-        <v>0.02090400901499286</v>
+        <v>0.02346065179655939</v>
       </c>
       <c r="Y4">
-        <v>0.01274682718887407</v>
+        <v>0.01580484040398044</v>
       </c>
       <c r="Z4">
-        <v>0.08578713501260242</v>
+        <v>0.08435582194075385</v>
       </c>
       <c r="AA4">
-        <v>0.01012534439722046</v>
+        <v>0.01334448359821085</v>
       </c>
       <c r="AB4">
-        <v>0.0003700057647198986</v>
+        <v>0.004188744001720984</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02973020990429905</v>
+        <v>0.03201702865315273</v>
       </c>
       <c r="E5">
-        <v>0.02537520941719335</v>
+        <v>0.02815101759610543</v>
       </c>
       <c r="F5">
-        <v>0.1431374812087675</v>
+        <v>0.1326906717700145</v>
       </c>
       <c r="G5">
-        <v>0.03483576522052386</v>
+        <v>0.03654932052391887</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1025,58 +1025,58 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02147117435759112</v>
+        <v>0.0246853365354006</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.004843491893755767</v>
       </c>
       <c r="M5">
-        <v>0.03323073099509084</v>
+        <v>0.03512450321773592</v>
       </c>
       <c r="N5">
-        <v>0.1367198572579337</v>
+        <v>0.126993633336298</v>
       </c>
       <c r="O5">
-        <v>0.08794296524575976</v>
+        <v>0.08369352248538275</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.004659249686050805</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.004582786726028616</v>
       </c>
       <c r="S5">
-        <v>0.1376866995076497</v>
+        <v>0.127851916323611</v>
       </c>
       <c r="T5">
-        <v>0.02930544316053927</v>
+        <v>0.03163995569233369</v>
       </c>
       <c r="U5">
-        <v>0.07749576014494995</v>
+        <v>0.07441935350318503</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.09873724827680609</v>
+        <v>0.09327579869280914</v>
       </c>
       <c r="X5">
-        <v>0.001058114437597048</v>
+        <v>0.006564301740450681</v>
       </c>
       <c r="Y5">
-        <v>0.02616611974039606</v>
+        <v>0.0288531226965957</v>
       </c>
       <c r="Z5">
-        <v>0.07762778566850162</v>
+        <v>0.07453655489854065</v>
       </c>
       <c r="AA5">
-        <v>0.03902588647276124</v>
+        <v>0.04026896536425374</v>
       </c>
       <c r="AB5">
-        <v>0.0004535489836398096</v>
+        <v>0.006027618280453911</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.001864448886751455</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0007074014971711427</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09315088171296432</v>
+        <v>0.08830773019725748</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1548668062577585</v>
+        <v>0.1420737044495178</v>
       </c>
       <c r="G6">
-        <v>0.02824288946482174</v>
+        <v>0.03176087513966892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006141876770456872</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1135,58 +1135,58 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02860327889003974</v>
+        <v>0.03207484092240615</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0008798028735971491</v>
       </c>
       <c r="N6">
-        <v>0.1295439262458098</v>
+        <v>0.120012796754174</v>
       </c>
       <c r="O6">
-        <v>0.04095276189164863</v>
+        <v>0.04283352257532872</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.005006357111385811</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1631654012846804</v>
+        <v>0.1493033141465026</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.007121771765571628</v>
       </c>
       <c r="U6">
-        <v>0.1118037266411649</v>
+        <v>0.1045578048342036</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1166085519814386</v>
+        <v>0.1087436955493991</v>
       </c>
       <c r="X6">
-        <v>0.005560601891444221</v>
+        <v>0.01200041139149277</v>
       </c>
       <c r="Y6">
-        <v>0.03360123739185195</v>
+        <v>0.03642898630877658</v>
       </c>
       <c r="Z6">
-        <v>0.06844750439368316</v>
+        <v>0.06678652381999066</v>
       </c>
       <c r="AA6">
-        <v>0.02545243195269409</v>
+        <v>0.02932987102110975</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.006880268890917715</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.006335719785251</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.0001362825945597526</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.002000481957405618</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001095947411494071</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.000187413729532568</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="E7">
-        <v>0.008895952531404664</v>
+        <v>0.009055518484911091</v>
       </c>
       <c r="F7">
-        <v>0.1259534787987507</v>
+        <v>0.1257127328210929</v>
       </c>
       <c r="G7">
-        <v>0.06027633077061059</v>
+        <v>0.06026018671987595</v>
       </c>
       <c r="H7">
-        <v>0.002099616502679679</v>
+        <v>0.002282424485018034</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1239,55 +1239,55 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.03181526779498291</v>
+        <v>0.0318964545477093</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.02323563349354808</v>
+        <v>0.02334616077725446</v>
       </c>
       <c r="N7">
-        <v>0.1567664385584079</v>
+        <v>0.1564203187887386</v>
       </c>
       <c r="O7">
-        <v>0.1199721957677976</v>
+        <v>0.1197519045104582</v>
       </c>
       <c r="P7">
-        <v>0.008229322667934798</v>
+        <v>0.008391168354291618</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.02195164317960473</v>
+        <v>0.0220665614380614</v>
       </c>
       <c r="S7">
-        <v>0.0677963170905146</v>
+        <v>0.06775445628031955</v>
       </c>
       <c r="T7">
-        <v>0.0449342370975862</v>
+        <v>0.04497055975567577</v>
       </c>
       <c r="U7">
-        <v>0.06276749023045489</v>
+        <v>0.06274282694233324</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.1034528553846429</v>
+        <v>0.1032890567703757</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.03616602440498234</v>
+        <v>0.03623233249218322</v>
       </c>
       <c r="Z7">
-        <v>0.03352264316539367</v>
+        <v>0.03359799105620706</v>
       </c>
       <c r="AA7">
-        <v>0.05843030576760371</v>
+        <v>0.05842047473114074</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004899149253466266</v>
+        <v>0.01318869278760472</v>
       </c>
       <c r="E8">
-        <v>0.04798843982795493</v>
+        <v>0.0481400240161161</v>
       </c>
       <c r="F8">
-        <v>0.03255567058952326</v>
+        <v>0.03562192909661051</v>
       </c>
       <c r="G8">
-        <v>0.1292801437445832</v>
+        <v>0.1140787580226197</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1343,58 +1343,58 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.00670613928355581</v>
       </c>
       <c r="K8">
-        <v>0.01447508640488532</v>
+        <v>0.02095609268536057</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.01217629409720651</v>
+        <v>0.01909145647761558</v>
       </c>
       <c r="N8">
-        <v>0.09079613433649801</v>
+        <v>0.08286294216930669</v>
       </c>
       <c r="O8">
-        <v>0.1585624298900134</v>
+        <v>0.1378307128251182</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.001061026745813034</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.0002172771555072645</v>
       </c>
       <c r="R8">
-        <v>0.02890868380355639</v>
+        <v>0.03266372204694978</v>
       </c>
       <c r="S8">
-        <v>0.04504486995337392</v>
+        <v>0.0457523846674734</v>
       </c>
       <c r="T8">
-        <v>0.09803606256747387</v>
+        <v>0.08873551807616797</v>
       </c>
       <c r="U8">
-        <v>0.03411356418100803</v>
+        <v>0.03688559471302698</v>
       </c>
       <c r="V8">
-        <v>0.007388114165431996</v>
+        <v>0.01520758508994774</v>
       </c>
       <c r="W8">
-        <v>0.1139230798559205</v>
+        <v>0.1016220705368469</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.004304380494950838</v>
       </c>
       <c r="Y8">
-        <v>0.04307632747901621</v>
+        <v>0.04415562642101933</v>
       </c>
       <c r="Z8">
-        <v>0.0124686274500386</v>
+        <v>0.01932857896693373</v>
       </c>
       <c r="AA8">
-        <v>0.117588223324225</v>
+        <v>0.10459500514897</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.004540579155619903</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.0006913896734181302</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.005475317134185583</v>
       </c>
       <c r="AI8">
-        <v>0.008719099075824552</v>
+        <v>0.01628719660926162</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1186713838497404</v>
+        <v>0.1161588072588543</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1565151117193819</v>
+        <v>0.1524137519440348</v>
       </c>
       <c r="G9">
-        <v>0.02246164065308257</v>
+        <v>0.02398821217938771</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.007779532937022909</v>
+        <v>0.009922499495341627</v>
       </c>
       <c r="L9">
-        <v>0.008603292412191831</v>
+        <v>0.01071167529506776</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1899559514223138</v>
+        <v>0.1844506537480026</v>
       </c>
       <c r="O9">
-        <v>0.03084554497182974</v>
+        <v>0.03202013726797979</v>
       </c>
       <c r="P9">
-        <v>0.009909929082422919</v>
+        <v>0.01196345578471817</v>
       </c>
       <c r="Q9">
-        <v>0.006968319289115441</v>
+        <v>0.009145342814740345</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1422567847515074</v>
+        <v>0.1387540285334826</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.08584533921063521</v>
+        <v>0.08471088974069836</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0965477908901546</v>
+        <v>0.0949640232314944</v>
       </c>
       <c r="X9">
-        <v>0.008405591814484119</v>
+        <v>0.01052227470908928</v>
       </c>
       <c r="Y9">
-        <v>0.007240831953941158</v>
+        <v>0.009406414652676092</v>
       </c>
       <c r="Z9">
-        <v>0.08683344216520401</v>
+        <v>0.085657509431141</v>
       </c>
       <c r="AA9">
-        <v>0.01685791908637498</v>
+        <v>0.01861975016814079</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.004301593790597314</v>
+        <v>0.006590573745150507</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="E10">
-        <v>0.03182679185364586</v>
+        <v>0.03411012478699343</v>
       </c>
       <c r="F10">
-        <v>0.07450157781018553</v>
+        <v>0.07019494141679113</v>
       </c>
       <c r="G10">
-        <v>0.1243519782835704</v>
+        <v>0.1123472924991382</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1557,61 +1557,61 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.006013597174406938</v>
+        <v>0.01228308158686544</v>
       </c>
       <c r="K10">
-        <v>0.01774958284671379</v>
+        <v>0.02220676090857105</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02679513490948662</v>
+        <v>0.02985547150392967</v>
       </c>
       <c r="N10">
-        <v>0.09625087777410912</v>
+        <v>0.0885856487966457</v>
       </c>
       <c r="O10">
-        <v>0.143575947248609</v>
+        <v>0.1286026381195428</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.006052246624837546</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01985352390781638</v>
+        <v>0.02398580503704324</v>
       </c>
       <c r="S10">
-        <v>0.07144232988702499</v>
+        <v>0.06760811179695983</v>
       </c>
       <c r="T10">
-        <v>0.07591327021703495</v>
+        <v>0.07138863601881484</v>
       </c>
       <c r="U10">
-        <v>0.05187726826550623</v>
+        <v>0.0510643460782004</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.00496713924691731</v>
       </c>
       <c r="W10">
-        <v>0.1142755454469258</v>
+        <v>0.1038268928523047</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.04997193774663239</v>
+        <v>0.04945324245221529</v>
       </c>
       <c r="Z10">
-        <v>0.01452307714099922</v>
+        <v>0.01947850195809203</v>
       </c>
       <c r="AA10">
-        <v>0.06759602727793704</v>
+        <v>0.06435576685273446</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.0004749980357492586</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.0008512401139036754</v>
+        <v>0.007917911294142398</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.006164313388520272</v>
       </c>
       <c r="AI10">
-        <v>0.002636147221702404</v>
+        <v>0.009427187655873498</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02343409353473271</v>
+        <v>0.02691046466322188</v>
       </c>
       <c r="E11">
-        <v>0.04243189428985465</v>
+        <v>0.0433556308707076</v>
       </c>
       <c r="F11">
-        <v>0.0494146561665318</v>
+        <v>0.04940015576753234</v>
       </c>
       <c r="G11">
-        <v>0.1197534761524768</v>
+        <v>0.1102879185363581</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1664,58 +1664,58 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.005410084460050868</v>
+        <v>0.01130824687080398</v>
       </c>
       <c r="K11">
-        <v>0.01059705375124616</v>
+        <v>0.0157982703849117</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02510485661277741</v>
+        <v>0.02835673609568586</v>
       </c>
       <c r="N11">
-        <v>0.08377134118685571</v>
+        <v>0.07914051375845048</v>
       </c>
       <c r="O11">
-        <v>0.1545931038239406</v>
+        <v>0.1404463287149506</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.002091734669970543</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02096524179030301</v>
+        <v>0.02477333954004986</v>
       </c>
       <c r="S11">
-        <v>0.05888288863010922</v>
+        <v>0.05759619164356199</v>
       </c>
       <c r="T11">
-        <v>0.1054726598227592</v>
+        <v>0.09792594037120315</v>
       </c>
       <c r="U11">
-        <v>0.0255083195656281</v>
+        <v>0.02870598785401918</v>
       </c>
       <c r="V11">
-        <v>0.0006688402084728973</v>
+        <v>0.007204058667521312</v>
       </c>
       <c r="W11">
-        <v>0.1134972573498347</v>
+        <v>0.1048723149427628</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0472838060495639</v>
+        <v>0.04755561677123142</v>
       </c>
       <c r="Z11">
-        <v>0.008972351465707414</v>
+        <v>0.01439187079857205</v>
       </c>
       <c r="AA11">
-        <v>0.1008157199030372</v>
+        <v>0.09389472897019634</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.0001306054340161872</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.006265746308230598</v>
       </c>
       <c r="AI11">
-        <v>0.003422355236117504</v>
+        <v>0.009587598366042302</v>
       </c>
     </row>
   </sheetData>
@@ -1873,94 +1873,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1331171958662623</v>
+        <v>0.122726718628815</v>
       </c>
       <c r="E2">
-        <v>0.1389407980737557</v>
+        <v>0.1358424644972541</v>
       </c>
       <c r="F2">
-        <v>0.2855525389396237</v>
+        <v>0.2701891724896388</v>
       </c>
       <c r="G2">
-        <v>0.2855525389396237</v>
+        <v>0.2701891724896388</v>
       </c>
       <c r="H2">
-        <v>0.2855525389396237</v>
+        <v>0.2734976556119585</v>
       </c>
       <c r="I2">
-        <v>0.2855525389396237</v>
+        <v>0.2734976556119585</v>
       </c>
       <c r="J2">
-        <v>0.2855525389396237</v>
+        <v>0.2762739747943648</v>
       </c>
       <c r="K2">
-        <v>0.2855525389396237</v>
+        <v>0.2762739747943648</v>
       </c>
       <c r="L2">
-        <v>0.3214971548662682</v>
+        <v>0.3153265609969312</v>
       </c>
       <c r="M2">
-        <v>0.3399038814656504</v>
+        <v>0.339277482975309</v>
       </c>
       <c r="N2">
-        <v>0.4820451262118032</v>
+        <v>0.469774700869103</v>
       </c>
       <c r="O2">
-        <v>0.4820451262118032</v>
+        <v>0.469774700869103</v>
       </c>
       <c r="P2">
-        <v>0.4820451262118032</v>
+        <v>0.4706249499469595</v>
       </c>
       <c r="Q2">
-        <v>0.4955366576709548</v>
+        <v>0.4903434568827392</v>
       </c>
       <c r="R2">
-        <v>0.5432687471728113</v>
+        <v>0.539546093907421</v>
       </c>
       <c r="S2">
-        <v>0.6834353866903612</v>
+        <v>0.6683430031391382</v>
       </c>
       <c r="T2">
-        <v>0.6956992824645704</v>
+        <v>0.6870044078456995</v>
       </c>
       <c r="U2">
-        <v>0.7339293761152323</v>
+        <v>0.7280249912533985</v>
       </c>
       <c r="V2">
-        <v>0.8003170313702462</v>
+        <v>0.7932917101444491</v>
       </c>
       <c r="W2">
-        <v>0.8216924935489761</v>
+        <v>0.8197989743971518</v>
       </c>
       <c r="X2">
-        <v>0.8757198445826774</v>
+        <v>0.8744223849301708</v>
       </c>
       <c r="Y2">
-        <v>0.8757198445826774</v>
+        <v>0.8744223849301708</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9895396349903819</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9895396349903819</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9941983467720743</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9941983467720743</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9950842029176854</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9950842029176854</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9950842029176854</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9966308288180665</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1980,100 +1980,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1322594850399036</v>
+        <v>0.1288952278538678</v>
       </c>
       <c r="E3">
-        <v>0.1322594850399036</v>
+        <v>0.1288952278538678</v>
       </c>
       <c r="F3">
-        <v>0.2729585289449233</v>
+        <v>0.2658374102778669</v>
       </c>
       <c r="G3">
-        <v>0.2831503231789065</v>
+        <v>0.2783434786868981</v>
       </c>
       <c r="H3">
-        <v>0.2861135478984627</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="I3">
-        <v>0.2861135478984627</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="J3">
-        <v>0.2861135478984627</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="K3">
-        <v>0.2861135478984627</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="L3">
-        <v>0.3221406916151928</v>
+        <v>0.3210968168514411</v>
       </c>
       <c r="M3">
-        <v>0.3221406916151928</v>
+        <v>0.3210968168514411</v>
       </c>
       <c r="N3">
-        <v>0.4823805562230206</v>
+        <v>0.4766707902223023</v>
       </c>
       <c r="O3">
-        <v>0.4882573327237677</v>
+        <v>0.4850625734863854</v>
       </c>
       <c r="P3">
-        <v>0.4882573327237677</v>
+        <v>0.4850625734863854</v>
       </c>
       <c r="Q3">
-        <v>0.4960703669391195</v>
+        <v>0.4953005406700917</v>
       </c>
       <c r="R3">
-        <v>0.4960703669391195</v>
+        <v>0.4953005406700917</v>
       </c>
       <c r="S3">
-        <v>0.6868845891952087</v>
+        <v>0.6800265670023279</v>
       </c>
       <c r="T3">
-        <v>0.6868845891952087</v>
+        <v>0.6800265670023279</v>
       </c>
       <c r="U3">
-        <v>0.7657704399026797</v>
+        <v>0.758031076800877</v>
       </c>
       <c r="V3">
-        <v>0.7704612055875949</v>
+        <v>0.7652920219124909</v>
       </c>
       <c r="W3">
-        <v>0.866907766882127</v>
+        <v>0.8600403263301397</v>
       </c>
       <c r="X3">
-        <v>0.8845376625513591</v>
+        <v>0.8796384792063907</v>
       </c>
       <c r="Y3">
-        <v>0.8888471695721771</v>
+        <v>0.8865359016270093</v>
       </c>
       <c r="Z3">
-        <v>0.9935109594348895</v>
+        <v>0.9891191730183286</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.9980947381114857</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -2087,76 +2087,76 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06663486524591113</v>
+        <v>0.06638072120141608</v>
       </c>
       <c r="E4">
-        <v>0.06663486524591113</v>
+        <v>0.06638072120141608</v>
       </c>
       <c r="F4">
-        <v>0.2393722579318338</v>
+        <v>0.232342517787927</v>
       </c>
       <c r="G4">
-        <v>0.2649430207813535</v>
+        <v>0.2601830875432028</v>
       </c>
       <c r="H4">
-        <v>0.2649430207813535</v>
+        <v>0.2601830875432028</v>
       </c>
       <c r="I4">
-        <v>0.2649430207813535</v>
+        <v>0.2601830875432028</v>
       </c>
       <c r="J4">
-        <v>0.2649430207813535</v>
+        <v>0.2601830875432028</v>
       </c>
       <c r="K4">
-        <v>0.2673929192629398</v>
+        <v>0.2663238863962871</v>
       </c>
       <c r="L4">
-        <v>0.3012488908419838</v>
+        <v>0.3019404254426098</v>
       </c>
       <c r="M4">
-        <v>0.3012488908419838</v>
+        <v>0.3019404254426098</v>
       </c>
       <c r="N4">
-        <v>0.4931106518088066</v>
+        <v>0.4858511362107304</v>
       </c>
       <c r="O4">
-        <v>0.5253707450939883</v>
+        <v>0.5199698855198917</v>
       </c>
       <c r="P4">
-        <v>0.5253707450939883</v>
+        <v>0.5199698855198917</v>
       </c>
       <c r="Q4">
-        <v>0.5455373525168781</v>
+        <v>0.5427384591416515</v>
       </c>
       <c r="R4">
-        <v>0.5455373525168781</v>
+        <v>0.5427384591416515</v>
       </c>
       <c r="S4">
-        <v>0.7006770111423088</v>
+        <v>0.6921841432060034</v>
       </c>
       <c r="T4">
-        <v>0.7006770111423088</v>
+        <v>0.6921841432060034</v>
       </c>
       <c r="U4">
-        <v>0.7955940277504981</v>
+        <v>0.7851086905990435</v>
       </c>
       <c r="V4">
-        <v>0.7955940277504981</v>
+        <v>0.7851086905990435</v>
       </c>
       <c r="W4">
-        <v>0.8700666786215903</v>
+        <v>0.8588454582587746</v>
       </c>
       <c r="X4">
-        <v>0.8909706876365832</v>
+        <v>0.882306110055334</v>
       </c>
       <c r="Y4">
-        <v>0.9037175148254573</v>
+        <v>0.8981109504593144</v>
       </c>
       <c r="Z4">
-        <v>0.9895046498380596</v>
+        <v>0.9824667724000683</v>
       </c>
       <c r="AA4">
-        <v>0.9996299942352801</v>
+        <v>0.9958112559982791</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -2194,97 +2194,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02973020990429905</v>
+        <v>0.03201702865315273</v>
       </c>
       <c r="E5">
-        <v>0.0551054193214924</v>
+        <v>0.06016804624925816</v>
       </c>
       <c r="F5">
-        <v>0.1982429005302599</v>
+        <v>0.1928587180192727</v>
       </c>
       <c r="G5">
-        <v>0.2330786657507838</v>
+        <v>0.2294080385431916</v>
       </c>
       <c r="H5">
-        <v>0.2330786657507838</v>
+        <v>0.2294080385431916</v>
       </c>
       <c r="I5">
-        <v>0.2330786657507838</v>
+        <v>0.2294080385431916</v>
       </c>
       <c r="J5">
-        <v>0.2330786657507838</v>
+        <v>0.2294080385431916</v>
       </c>
       <c r="K5">
-        <v>0.2545498401083749</v>
+        <v>0.2540933750785921</v>
       </c>
       <c r="L5">
-        <v>0.2545498401083749</v>
+        <v>0.2589368669723479</v>
       </c>
       <c r="M5">
-        <v>0.2877805711034658</v>
+        <v>0.2940613701900838</v>
       </c>
       <c r="N5">
-        <v>0.4245004283613995</v>
+        <v>0.4210550035263819</v>
       </c>
       <c r="O5">
-        <v>0.5124433936071593</v>
+        <v>0.5047485260117646</v>
       </c>
       <c r="P5">
-        <v>0.5124433936071593</v>
+        <v>0.5047485260117646</v>
       </c>
       <c r="Q5">
-        <v>0.5124433936071593</v>
+        <v>0.5094077756978154</v>
       </c>
       <c r="R5">
-        <v>0.5124433936071593</v>
+        <v>0.513990562423844</v>
       </c>
       <c r="S5">
-        <v>0.650130093114809</v>
+        <v>0.641842478747455</v>
       </c>
       <c r="T5">
-        <v>0.6794355362753483</v>
+        <v>0.6734824344397887</v>
       </c>
       <c r="U5">
-        <v>0.7569312964202982</v>
+        <v>0.7479017879429738</v>
       </c>
       <c r="V5">
-        <v>0.7569312964202982</v>
+        <v>0.7479017879429738</v>
       </c>
       <c r="W5">
-        <v>0.8556685446971043</v>
+        <v>0.8411775866357829</v>
       </c>
       <c r="X5">
-        <v>0.8567266591347014</v>
+        <v>0.8477418883762335</v>
       </c>
       <c r="Y5">
-        <v>0.8828927788750974</v>
+        <v>0.8765950110728292</v>
       </c>
       <c r="Z5">
-        <v>0.960520564543599</v>
+        <v>0.9511315659713698</v>
       </c>
       <c r="AA5">
-        <v>0.9995464510163603</v>
+        <v>0.9914005313356236</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9974281496160775</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9974281496160775</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9974281496160775</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9992925985028289</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9992925985028289</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9992925985028289</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9992925985028289</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2301,97 +2301,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09315088171296432</v>
+        <v>0.08830773019725748</v>
       </c>
       <c r="E6">
-        <v>0.09315088171296432</v>
+        <v>0.08830773019725748</v>
       </c>
       <c r="F6">
-        <v>0.2480176879707228</v>
+        <v>0.2303814346467753</v>
       </c>
       <c r="G6">
-        <v>0.2762605774355446</v>
+        <v>0.2621423097864442</v>
       </c>
       <c r="H6">
-        <v>0.2762605774355446</v>
+        <v>0.2682841865569011</v>
       </c>
       <c r="I6">
-        <v>0.2762605774355446</v>
+        <v>0.2682841865569011</v>
       </c>
       <c r="J6">
-        <v>0.2762605774355446</v>
+        <v>0.2682841865569011</v>
       </c>
       <c r="K6">
-        <v>0.2762605774355446</v>
+        <v>0.2682841865569011</v>
       </c>
       <c r="L6">
-        <v>0.3048638563255843</v>
+        <v>0.3003590274793072</v>
       </c>
       <c r="M6">
-        <v>0.3048638563255843</v>
+        <v>0.3012388303529043</v>
       </c>
       <c r="N6">
-        <v>0.4344077825713941</v>
+        <v>0.4212516271070783</v>
       </c>
       <c r="O6">
-        <v>0.4753605444630428</v>
+        <v>0.464085149682407</v>
       </c>
       <c r="P6">
-        <v>0.4753605444630428</v>
+        <v>0.464085149682407</v>
       </c>
       <c r="Q6">
-        <v>0.4753605444630428</v>
+        <v>0.4690915067937929</v>
       </c>
       <c r="R6">
-        <v>0.4753605444630428</v>
+        <v>0.4690915067937929</v>
       </c>
       <c r="S6">
-        <v>0.6385259457477233</v>
+        <v>0.6183948209402954</v>
       </c>
       <c r="T6">
-        <v>0.6385259457477233</v>
+        <v>0.625516592705867</v>
       </c>
       <c r="U6">
-        <v>0.7503296723888881</v>
+        <v>0.7300743975400705</v>
       </c>
       <c r="V6">
-        <v>0.7503296723888881</v>
+        <v>0.7300743975400705</v>
       </c>
       <c r="W6">
-        <v>0.8669382243703267</v>
+        <v>0.8388180930894696</v>
       </c>
       <c r="X6">
-        <v>0.872498826261771</v>
+        <v>0.8508185044809624</v>
       </c>
       <c r="Y6">
-        <v>0.9061000636536229</v>
+        <v>0.887247490789739</v>
       </c>
       <c r="Z6">
-        <v>0.9745475680473061</v>
+        <v>0.9540340146097296</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9833638856308393</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9902441545217571</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9965798743070081</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9965798743070081</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9965798743070081</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9967161569015679</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9987166388589735</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9998125862704677</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2408,100 +2408,100 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="E7">
-        <v>0.04263019932450487</v>
+        <v>0.04286438952926429</v>
       </c>
       <c r="F7">
-        <v>0.1685836781232555</v>
+        <v>0.1685771223503572</v>
       </c>
       <c r="G7">
-        <v>0.2288600088938661</v>
+        <v>0.2288373090702331</v>
       </c>
       <c r="H7">
-        <v>0.2309596253965458</v>
+        <v>0.2311197335552511</v>
       </c>
       <c r="I7">
-        <v>0.2309596253965458</v>
+        <v>0.2311197335552511</v>
       </c>
       <c r="J7">
-        <v>0.2309596253965458</v>
+        <v>0.2311197335552511</v>
       </c>
       <c r="K7">
-        <v>0.2627748931915287</v>
+        <v>0.2630161881029605</v>
       </c>
       <c r="L7">
-        <v>0.2627748931915287</v>
+        <v>0.2630161881029605</v>
       </c>
       <c r="M7">
-        <v>0.2860105266850768</v>
+        <v>0.2863623488802149</v>
       </c>
       <c r="N7">
-        <v>0.4427769652434846</v>
+        <v>0.4427826676689535</v>
       </c>
       <c r="O7">
-        <v>0.5627491610112823</v>
+        <v>0.5625345721794117</v>
       </c>
       <c r="P7">
-        <v>0.570978483679217</v>
+        <v>0.5709257405337034</v>
       </c>
       <c r="Q7">
-        <v>0.570978483679217</v>
+        <v>0.5709257405337034</v>
       </c>
       <c r="R7">
-        <v>0.5929301268588217</v>
+        <v>0.5929923019717648</v>
       </c>
       <c r="S7">
-        <v>0.6607264439493363</v>
+        <v>0.6607467582520843</v>
       </c>
       <c r="T7">
-        <v>0.7056606810469225</v>
+        <v>0.7057173180077601</v>
       </c>
       <c r="U7">
-        <v>0.7684281712773774</v>
+        <v>0.7684601449500933</v>
       </c>
       <c r="V7">
-        <v>0.7684281712773774</v>
+        <v>0.7684601449500933</v>
       </c>
       <c r="W7">
-        <v>0.8718810266620203</v>
+        <v>0.871749201720469</v>
       </c>
       <c r="X7">
-        <v>0.8718810266620203</v>
+        <v>0.871749201720469</v>
       </c>
       <c r="Y7">
-        <v>0.9080470510670026</v>
+        <v>0.9079815342126523</v>
       </c>
       <c r="Z7">
-        <v>0.9415696942323962</v>
+        <v>0.9415795252688594</v>
       </c>
       <c r="AA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2515,97 +2515,97 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004899149253466266</v>
+        <v>0.01318869278760472</v>
       </c>
       <c r="E8">
-        <v>0.05288758908142119</v>
+        <v>0.06132871680372082</v>
       </c>
       <c r="F8">
-        <v>0.08544325967094446</v>
+        <v>0.09695064590033134</v>
       </c>
       <c r="G8">
-        <v>0.2147234034155276</v>
+        <v>0.211029403922951</v>
       </c>
       <c r="H8">
-        <v>0.2147234034155276</v>
+        <v>0.211029403922951</v>
       </c>
       <c r="I8">
-        <v>0.2147234034155276</v>
+        <v>0.211029403922951</v>
       </c>
       <c r="J8">
-        <v>0.2147234034155276</v>
+        <v>0.2177355432065068</v>
       </c>
       <c r="K8">
-        <v>0.229198489820413</v>
+        <v>0.2386916358918674</v>
       </c>
       <c r="L8">
-        <v>0.229198489820413</v>
+        <v>0.2386916358918674</v>
       </c>
       <c r="M8">
-        <v>0.2413747839176195</v>
+        <v>0.257783092369483</v>
       </c>
       <c r="N8">
-        <v>0.3321709182541175</v>
+        <v>0.3406460345387897</v>
       </c>
       <c r="O8">
-        <v>0.4907333481441308</v>
+        <v>0.4784767473639079</v>
       </c>
       <c r="P8">
-        <v>0.4907333481441308</v>
+        <v>0.4795377741097209</v>
       </c>
       <c r="Q8">
-        <v>0.4907333481441308</v>
+        <v>0.4797550512652282</v>
       </c>
       <c r="R8">
-        <v>0.5196420319476872</v>
+        <v>0.512418773312178</v>
       </c>
       <c r="S8">
-        <v>0.5646869019010612</v>
+        <v>0.5581711579796514</v>
       </c>
       <c r="T8">
-        <v>0.6627229644685351</v>
+        <v>0.6469066760558194</v>
       </c>
       <c r="U8">
-        <v>0.6968365286495432</v>
+        <v>0.6837922707688464</v>
       </c>
       <c r="V8">
-        <v>0.7042246428149751</v>
+        <v>0.6989998558587942</v>
       </c>
       <c r="W8">
-        <v>0.8181477226708956</v>
+        <v>0.8006219263956411</v>
       </c>
       <c r="X8">
-        <v>0.8181477226708956</v>
+        <v>0.804926306890592</v>
       </c>
       <c r="Y8">
-        <v>0.8612240501499119</v>
+        <v>0.8490819333116113</v>
       </c>
       <c r="Z8">
-        <v>0.8736926775999505</v>
+        <v>0.868410512278545</v>
       </c>
       <c r="AA8">
-        <v>0.9912809009241755</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="AB8">
-        <v>0.9912809009241755</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="AC8">
-        <v>0.9912809009241755</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="AD8">
-        <v>0.9912809009241755</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="AE8">
-        <v>0.9912809009241755</v>
+        <v>0.977546096583135</v>
       </c>
       <c r="AF8">
-        <v>0.9912809009241755</v>
+        <v>0.978237486256553</v>
       </c>
       <c r="AG8">
-        <v>0.9912809009241755</v>
+        <v>0.978237486256553</v>
       </c>
       <c r="AH8">
-        <v>0.9912809009241755</v>
+        <v>0.9837128033907386</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -2622,94 +2622,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1186713838497404</v>
+        <v>0.1161588072588543</v>
       </c>
       <c r="E9">
-        <v>0.1186713838497404</v>
+        <v>0.1161588072588543</v>
       </c>
       <c r="F9">
-        <v>0.2751864955691223</v>
+        <v>0.2685725592028891</v>
       </c>
       <c r="G9">
-        <v>0.2976481362222049</v>
+        <v>0.2925607713822768</v>
       </c>
       <c r="H9">
-        <v>0.2976481362222049</v>
+        <v>0.2925607713822768</v>
       </c>
       <c r="I9">
-        <v>0.2976481362222049</v>
+        <v>0.2925607713822768</v>
       </c>
       <c r="J9">
-        <v>0.2976481362222049</v>
+        <v>0.2925607713822768</v>
       </c>
       <c r="K9">
-        <v>0.3054276691592278</v>
+        <v>0.3024832708776184</v>
       </c>
       <c r="L9">
-        <v>0.3140309615714196</v>
+        <v>0.3131949461726862</v>
       </c>
       <c r="M9">
-        <v>0.3140309615714196</v>
+        <v>0.3131949461726862</v>
       </c>
       <c r="N9">
-        <v>0.5039869129937333</v>
+        <v>0.4976455999206888</v>
       </c>
       <c r="O9">
-        <v>0.5348324579655631</v>
+        <v>0.5296657371886686</v>
       </c>
       <c r="P9">
-        <v>0.5447423870479861</v>
+        <v>0.5416291929733867</v>
       </c>
       <c r="Q9">
-        <v>0.5517107063371015</v>
+        <v>0.5507745357881271</v>
       </c>
       <c r="R9">
-        <v>0.5517107063371015</v>
+        <v>0.5507745357881271</v>
       </c>
       <c r="S9">
-        <v>0.6939674910886089</v>
+        <v>0.6895285643216097</v>
       </c>
       <c r="T9">
-        <v>0.6939674910886089</v>
+        <v>0.6895285643216097</v>
       </c>
       <c r="U9">
-        <v>0.7798128302992441</v>
+        <v>0.7742394540623081</v>
       </c>
       <c r="V9">
-        <v>0.7798128302992441</v>
+        <v>0.7742394540623081</v>
       </c>
       <c r="W9">
-        <v>0.8763606211893987</v>
+        <v>0.8692034772938025</v>
       </c>
       <c r="X9">
-        <v>0.8847662130038828</v>
+        <v>0.8797257520028918</v>
       </c>
       <c r="Y9">
-        <v>0.892007044957824</v>
+        <v>0.8891321666555679</v>
       </c>
       <c r="Z9">
-        <v>0.9788404871230281</v>
+        <v>0.974789676086709</v>
       </c>
       <c r="AA9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AB9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AC9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AD9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AE9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AF9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AG9">
-        <v>0.9956984062094031</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2729,97 +2729,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="E10">
-        <v>0.04182093672743566</v>
+        <v>0.04975906587611097</v>
       </c>
       <c r="F10">
-        <v>0.1163225145376212</v>
+        <v>0.1199540072929021</v>
       </c>
       <c r="G10">
-        <v>0.2406744928211916</v>
+        <v>0.2323012997920403</v>
       </c>
       <c r="H10">
-        <v>0.2406744928211916</v>
+        <v>0.2323012997920403</v>
       </c>
       <c r="I10">
-        <v>0.2406744928211916</v>
+        <v>0.2323012997920403</v>
       </c>
       <c r="J10">
-        <v>0.2466880899955985</v>
+        <v>0.2445843813789057</v>
       </c>
       <c r="K10">
-        <v>0.2644376728423123</v>
+        <v>0.2667911422874768</v>
       </c>
       <c r="L10">
-        <v>0.2644376728423123</v>
+        <v>0.2667911422874768</v>
       </c>
       <c r="M10">
-        <v>0.2912328077517989</v>
+        <v>0.2966466137914065</v>
       </c>
       <c r="N10">
-        <v>0.387483685525908</v>
+        <v>0.3852322625880522</v>
       </c>
       <c r="O10">
-        <v>0.5310596327745171</v>
+        <v>0.513834900707595</v>
       </c>
       <c r="P10">
-        <v>0.5310596327745171</v>
+        <v>0.5198871473324325</v>
       </c>
       <c r="Q10">
-        <v>0.5310596327745171</v>
+        <v>0.5198871473324325</v>
       </c>
       <c r="R10">
-        <v>0.5509131566823334</v>
+        <v>0.5438729523694757</v>
       </c>
       <c r="S10">
-        <v>0.6223554865693585</v>
+        <v>0.6114810641664356</v>
       </c>
       <c r="T10">
-        <v>0.6982687567863934</v>
+        <v>0.6828697001852504</v>
       </c>
       <c r="U10">
-        <v>0.7501460250518996</v>
+        <v>0.7339340462634508</v>
       </c>
       <c r="V10">
-        <v>0.7501460250518996</v>
+        <v>0.7389011855103681</v>
       </c>
       <c r="W10">
-        <v>0.8644215704988254</v>
+        <v>0.8427280783626728</v>
       </c>
       <c r="X10">
-        <v>0.8644215704988254</v>
+        <v>0.8427280783626728</v>
       </c>
       <c r="Y10">
-        <v>0.9143935082454577</v>
+        <v>0.8921813208148881</v>
       </c>
       <c r="Z10">
-        <v>0.9289165853864569</v>
+        <v>0.9116598227729801</v>
       </c>
       <c r="AA10">
-        <v>0.9965126126643939</v>
+        <v>0.9760155896257146</v>
       </c>
       <c r="AB10">
-        <v>0.9965126126643939</v>
+        <v>0.9764905876614638</v>
       </c>
       <c r="AC10">
-        <v>0.9965126126643939</v>
+        <v>0.9764905876614638</v>
       </c>
       <c r="AD10">
-        <v>0.9965126126643939</v>
+        <v>0.9764905876614638</v>
       </c>
       <c r="AE10">
-        <v>0.9973638527782976</v>
+        <v>0.9844084989556062</v>
       </c>
       <c r="AF10">
-        <v>0.9973638527782976</v>
+        <v>0.9844084989556062</v>
       </c>
       <c r="AG10">
-        <v>0.9973638527782976</v>
+        <v>0.9844084989556062</v>
       </c>
       <c r="AH10">
-        <v>0.9973638527782976</v>
+        <v>0.9905728123441265</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02343409353473271</v>
+        <v>0.02691046466322188</v>
       </c>
       <c r="E11">
-        <v>0.06586598782458736</v>
+        <v>0.07026609553392947</v>
       </c>
       <c r="F11">
-        <v>0.1152806439911191</v>
+        <v>0.1196662513014618</v>
       </c>
       <c r="G11">
-        <v>0.2350341201435959</v>
+        <v>0.2299541698378199</v>
       </c>
       <c r="H11">
-        <v>0.2350341201435959</v>
+        <v>0.2299541698378199</v>
       </c>
       <c r="I11">
-        <v>0.2350341201435959</v>
+        <v>0.2299541698378199</v>
       </c>
       <c r="J11">
-        <v>0.2404442046036468</v>
+        <v>0.2412624167086238</v>
       </c>
       <c r="K11">
-        <v>0.2510412583548929</v>
+        <v>0.2570606870935355</v>
       </c>
       <c r="L11">
-        <v>0.2510412583548929</v>
+        <v>0.2570606870935355</v>
       </c>
       <c r="M11">
-        <v>0.2761461149676703</v>
+        <v>0.2854174231892214</v>
       </c>
       <c r="N11">
-        <v>0.359917456154526</v>
+        <v>0.3645579369476719</v>
       </c>
       <c r="O11">
-        <v>0.5145105599784666</v>
+        <v>0.5050042656626224</v>
       </c>
       <c r="P11">
-        <v>0.5145105599784666</v>
+        <v>0.5070960003325929</v>
       </c>
       <c r="Q11">
-        <v>0.5145105599784666</v>
+        <v>0.5070960003325929</v>
       </c>
       <c r="R11">
-        <v>0.5354758017687696</v>
+        <v>0.5318693398726428</v>
       </c>
       <c r="S11">
-        <v>0.5943586903988789</v>
+        <v>0.5894655315162048</v>
       </c>
       <c r="T11">
-        <v>0.6998313502216381</v>
+        <v>0.687391471887408</v>
       </c>
       <c r="U11">
-        <v>0.7253396697872662</v>
+        <v>0.7160974597414272</v>
       </c>
       <c r="V11">
-        <v>0.7260085099957391</v>
+        <v>0.7233015184089485</v>
       </c>
       <c r="W11">
-        <v>0.8395057673455738</v>
+        <v>0.8281738333517114</v>
       </c>
       <c r="X11">
-        <v>0.8395057673455738</v>
+        <v>0.8281738333517114</v>
       </c>
       <c r="Y11">
-        <v>0.8867895733951378</v>
+        <v>0.8757294501229428</v>
       </c>
       <c r="Z11">
-        <v>0.8957619248608452</v>
+        <v>0.8901213209215149</v>
       </c>
       <c r="AA11">
-        <v>0.9965776447638823</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AB11">
-        <v>0.9965776447638823</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AC11">
-        <v>0.9965776447638823</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AD11">
-        <v>0.9965776447638823</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AE11">
-        <v>0.9965776447638823</v>
+        <v>0.9841466553257274</v>
       </c>
       <c r="AF11">
-        <v>0.9965776447638823</v>
+        <v>0.9841466553257274</v>
       </c>
       <c r="AG11">
-        <v>0.9965776447638823</v>
+        <v>0.9841466553257274</v>
       </c>
       <c r="AH11">
-        <v>0.9965776447638823</v>
+        <v>0.9904124016339581</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5432687471728113</v>
+        <v>0.539546093907421</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6868845891952087</v>
+        <v>0.6800265670023279</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5253707450939883</v>
+        <v>0.5199698855198917</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5124433936071593</v>
+        <v>0.5047485260117646</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6385259457477233</v>
+        <v>0.6183948209402954</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3205,10 +3205,10 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="F7">
-        <v>0.5627491610112823</v>
+        <v>0.5625345721794117</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5196420319476872</v>
+        <v>0.512418773312178</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3284,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5296657371886686</v>
+      </c>
+      <c r="G9">
         <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5039869129937333</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
       </c>
       <c r="H9">
         <v>26</v>
@@ -3328,10 +3328,10 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="F10">
-        <v>0.5310596327745171</v>
+        <v>0.513834900707595</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5145105599784666</v>
+        <v>0.5050042656626224</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7339293761152323</v>
+        <v>0.7280249912533985</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7657704399026797</v>
+        <v>0.758031076800877</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -3543,16 +3543,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006770111423088</v>
+        <v>0.7851086905990435</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7569312964202982</v>
+        <v>0.7479017879429738</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7503296723888881</v>
+        <v>0.7300743975400705</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -3669,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="F7">
-        <v>0.7056606810469225</v>
+        <v>0.7057173180077601</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -3707,16 +3707,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7042246428149751</v>
+        <v>0.8006219263956411</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>26</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7798128302992441</v>
+        <v>0.7742394540623081</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -3792,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="F10">
-        <v>0.7501460250518996</v>
+        <v>0.7339340462634508</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7253396697872662</v>
+        <v>0.7160974597414272</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -3925,16 +3925,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8197989743971518</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8003170313702462</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.866907766882127</v>
+        <v>0.8600403263301397</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8700666786215903</v>
+        <v>0.8588454582587746</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8556685446971043</v>
+        <v>0.8411775866357829</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8669382243703267</v>
+        <v>0.8388180930894696</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4133,10 +4133,10 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="F7">
-        <v>0.8718810266620203</v>
+        <v>0.871749201720469</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8181477226708956</v>
+        <v>0.8006219263956411</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8763606211893987</v>
+        <v>0.8692034772938025</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -4256,10 +4256,10 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="F10">
-        <v>0.8644215704988254</v>
+        <v>0.8427280783626728</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8395057673455738</v>
+        <v>0.8281738333517114</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9895396349903819</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9935109594348895</v>
+        <v>0.9891191730183286</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -4471,16 +4471,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9824667724000683</v>
+      </c>
+      <c r="G4">
         <v>24</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9037175148254573</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.960520564543599</v>
+        <v>0.9511315659713698</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -4553,16 +4553,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9540340146097296</v>
+      </c>
+      <c r="G6">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9061000636536229</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -4597,10 +4597,10 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0.03373424679310021</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="F7">
-        <v>0.9080470510670026</v>
+        <v>0.9079815342126523</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9912809009241755</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9788404871230281</v>
+        <v>0.974789676086709</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -4717,16 +4717,16 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>0.009994144873789797</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="F10">
-        <v>0.9143935082454577</v>
+        <v>0.9116598227729801</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>26</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9965776447638823</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="G11">
         <v>24</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -559,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,10 +674,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -683,105 +689,108 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.122726718628815</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.01311574586843905</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1343467079923847</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.003308483122319739</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.002776319182406289</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0.03905258620256639</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.0239509219783778</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.130497217893794</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0.000850249077856523</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.01971850693577964</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.04920263702468185</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.1287969092317171</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.01866140470656135</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.04102058340769893</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.06526671889105058</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.02650726425270263</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.05462341053301895</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0.1151172500602111</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0.004658711781692435</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>0.0008858561456110773</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.001546625900381074</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.003369171181933632</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -790,23 +799,23 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.1288952278538678</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.1369421824239991</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.01250606840903117</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.005613768536574537</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -814,59 +823,59 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0.03713956962796854</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.1555739733708611</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.008391783264083082</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.01023796718370626</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.1847260263322362</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>0.07800450979854914</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.007260945111613887</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.09474830441764875</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.01959815287625102</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.006897422420618662</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1025832713913193</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.00897556509315715</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.001905261888514233</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -885,10 +894,13 @@
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,20 +909,20 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06638072120141608</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06638072120141605</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.1659617965865109</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.02784056975527577</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -918,62 +930,62 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.006140798853084331</v>
+        <v>0</v>
       </c>
       <c r="L4">
+        <v>0.00614079885308433</v>
+      </c>
+      <c r="M4">
         <v>0.03561653904632267</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>0.1839107107681206</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03411874930916124</v>
+        <v>0.1839107107681205</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.03411874930916123</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.02276857362175983</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0.1494456840643519</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>0.0929245473930401</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.09292454739304011</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0.07373676765973097</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.02346065179655939</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.01580484040398044</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.08435582194075385</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.01334448359821085</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.004188744001720984</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
@@ -992,10 +1004,13 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,20 +1019,20 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.03201702865315273</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.02815101759610543</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1326906717700145</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03654932052391887</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -1025,71 +1040,71 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.0246853365354006</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.004843491893755767</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.03512450321773592</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.126993633336298</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.08369352248538275</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0.004659249686050805</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.004582786726028616</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.127851916323611</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.03163995569233369</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.07441935350318503</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>0.09327579869280914</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.006564301740450681</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.0288531226965957</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.07453655489854065</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.04026896536425374</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.006027618280453911</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>0.001864448886751455</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
@@ -1097,12 +1112,15 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0.0007074014971711427</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1111,23 +1129,23 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.08830773019725748</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.1420737044495178</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.03176087513966892</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.006141876770456872</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1135,81 +1153,84 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.03207484092240615</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.0008798028735971491</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.120012796754174</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.04283352257532872</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.005006357111385811</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0.1493033141465026</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.007121771765571628</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.1045578048342036</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0.1087436955493991</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.01200041139149277</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.03642898630877658</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.06678652381999066</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.02932987102110975</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.006880268890917715</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.006335719785251</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0.0001362825945597526</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.002000481957405618</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.001095947411494071</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.000187413729532568</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1218,80 +1239,80 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.03380887104435321</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.009055518484911091</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1257127328210929</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.06026018671987595</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.002282424485018034</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0.0318964545477093</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0.02334616077725446</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.1564203187887386</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.1197519045104582</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.008391168354291618</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>0.0220665614380614</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.06775445628031955</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.04497055975567577</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.06274282694233324</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0.1032890567703757</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>0.03623233249218322</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.03359799105620706</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.05842047473114074</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
         <v>0</v>
       </c>
@@ -1313,10 +1334,13 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1325,80 +1349,80 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01318869278760472</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.0481400240161161</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.03562192909661051</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1140787580226197</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.00670613928355581</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.02095609268536057</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0.01909145647761558</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.08286294216930669</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.1378307128251182</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.001061026745813034</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.0002172771555072645</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.03266372204694978</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.0457523846674734</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.08873551807616797</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.03688559471302698</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.01520758508994774</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.1016220705368469</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.004304380494950838</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.04415562642101933</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.01932857896693373</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.10459500514897</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -1406,24 +1430,27 @@
         <v>0</v>
       </c>
       <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.004540579155619903</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>0.0006913896734181302</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>0.005475317134185583</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.01628719660926162</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1432,20 +1459,20 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1161588072588543</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.1524137519440348</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.02398821217938771</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1453,59 +1480,59 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.009922499495341627</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.01071167529506776</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0.1844506537480026</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.03202013726797979</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.01196345578471817</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.009145342814740345</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.1387540285334826</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0.08471088974069836</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>0.0949640232314944</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.01052227470908928</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.009406414652676092</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.085657509431141</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.01861975016814079</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
         <v>0</v>
       </c>
@@ -1522,15 +1549,18 @@
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0.006590573745150507</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1539,105 +1569,108 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.01564894108911755</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.03411012478699343</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.07019494141679113</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1123472924991382</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.01228308158686544</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.02220676090857105</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0.02985547150392967</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.0885856487966457</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.1286026381195428</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.006052246624837546</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0.02398580503704324</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.06760811179695983</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.07138863601881484</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.0510643460782004</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.00496713924691731</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.1038268928523047</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0.04945324245221529</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.01947850195809203</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.06435576685273446</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.0004749980357492586</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>0.007917911294142398</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>0.006164313388520272</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.009427187655873498</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1646,80 +1679,80 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.02691046466322188</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.0433556308707076</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.04940015576753234</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1102879185363581</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.01130824687080398</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.0157982703849117</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>0.02835673609568586</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.07914051375845048</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.1404463287149506</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.002091734669970543</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>0.02477333954004986</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.05759619164356199</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.09792594037120315</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.02870598785401918</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.007204058667521312</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.1048723149427628</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0.04755561677123142</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.01439187079857205</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.09389472897019634</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
         <v>0</v>
       </c>
@@ -1727,18 +1760,21 @@
         <v>0</v>
       </c>
       <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.0001306054340161872</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0.006265746308230598</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.009587598366042302</v>
       </c>
     </row>
@@ -1749,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1861,10 +1897,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1873,85 +1912,85 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.122726718628815</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1358424644972541</v>
-      </c>
-      <c r="F2">
-        <v>0.2701891724896388</v>
       </c>
       <c r="G2">
         <v>0.2701891724896388</v>
       </c>
       <c r="H2">
-        <v>0.2734976556119585</v>
+        <v>0.2701891724896388</v>
       </c>
       <c r="I2">
         <v>0.2734976556119585</v>
       </c>
       <c r="J2">
-        <v>0.2762739747943648</v>
+        <v>0.2734976556119585</v>
       </c>
       <c r="K2">
         <v>0.2762739747943648</v>
       </c>
       <c r="L2">
+        <v>0.2762739747943648</v>
+      </c>
+      <c r="M2">
         <v>0.3153265609969312</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.339277482975309</v>
-      </c>
-      <c r="N2">
-        <v>0.469774700869103</v>
       </c>
       <c r="O2">
         <v>0.469774700869103</v>
       </c>
       <c r="P2">
+        <v>0.469774700869103</v>
+      </c>
+      <c r="Q2">
         <v>0.4706249499469595</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.4903434568827392</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.539546093907421</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.6683430031391382</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.6870044078456995</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.7280249912533985</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.7932917101444491</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.8197989743971518</v>
-      </c>
-      <c r="X2">
-        <v>0.8744223849301708</v>
       </c>
       <c r="Y2">
         <v>0.8744223849301708</v>
       </c>
       <c r="Z2">
-        <v>0.9895396349903819</v>
+        <v>0.8744223849301708</v>
       </c>
       <c r="AA2">
         <v>0.9895396349903819</v>
       </c>
       <c r="AB2">
-        <v>0.9941983467720743</v>
+        <v>0.9895396349903819</v>
       </c>
       <c r="AC2">
         <v>0.9941983467720743</v>
       </c>
       <c r="AD2">
-        <v>0.9950842029176854</v>
+        <v>0.9941983467720743</v>
       </c>
       <c r="AE2">
         <v>0.9950842029176854</v>
@@ -1960,18 +1999,21 @@
         <v>0.9950842029176854</v>
       </c>
       <c r="AG2">
+        <v>0.9950842029176854</v>
+      </c>
+      <c r="AH2">
         <v>0.9966308288180665</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1980,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1288952278538678</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.1288952278538678</v>
       </c>
       <c r="F3">
+        <v>0.1288952278538678</v>
+      </c>
+      <c r="G3">
         <v>0.2658374102778669</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2783434786868981</v>
-      </c>
-      <c r="H3">
-        <v>0.2839572472234726</v>
       </c>
       <c r="I3">
         <v>0.2839572472234726</v>
@@ -2004,55 +2046,55 @@
         <v>0.2839572472234726</v>
       </c>
       <c r="L3">
-        <v>0.3210968168514411</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="M3">
         <v>0.3210968168514411</v>
       </c>
       <c r="N3">
+        <v>0.3210968168514411</v>
+      </c>
+      <c r="O3">
         <v>0.4766707902223023</v>
-      </c>
-      <c r="O3">
-        <v>0.4850625734863854</v>
       </c>
       <c r="P3">
         <v>0.4850625734863854</v>
       </c>
       <c r="Q3">
-        <v>0.4953005406700917</v>
+        <v>0.4850625734863854</v>
       </c>
       <c r="R3">
         <v>0.4953005406700917</v>
       </c>
       <c r="S3">
-        <v>0.6800265670023279</v>
+        <v>0.4953005406700917</v>
       </c>
       <c r="T3">
         <v>0.6800265670023279</v>
       </c>
       <c r="U3">
+        <v>0.6800265670023279</v>
+      </c>
+      <c r="V3">
         <v>0.758031076800877</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.7652920219124909</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.8600403263301397</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.8796384792063907</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.8865359016270093</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.9891191730183286</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.9980947381114857</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2075,10 +2117,13 @@
       <c r="AI3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2087,105 +2132,108 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06638072120141608</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06638072120141608</v>
+        <v>0.06638072120141605</v>
       </c>
       <c r="F4">
+        <v>0.06638072120141605</v>
+      </c>
+      <c r="G4">
         <v>0.232342517787927</v>
       </c>
-      <c r="G4">
-        <v>0.2601830875432028</v>
-      </c>
       <c r="H4">
-        <v>0.2601830875432028</v>
+        <v>0.2601830875432027</v>
       </c>
       <c r="I4">
-        <v>0.2601830875432028</v>
+        <v>0.2601830875432027</v>
       </c>
       <c r="J4">
-        <v>0.2601830875432028</v>
+        <v>0.2601830875432027</v>
       </c>
       <c r="K4">
+        <v>0.2601830875432027</v>
+      </c>
+      <c r="L4">
         <v>0.2663238863962871</v>
       </c>
-      <c r="L4">
-        <v>0.3019404254426098</v>
-      </c>
       <c r="M4">
-        <v>0.3019404254426098</v>
+        <v>0.3019404254426097</v>
       </c>
       <c r="N4">
-        <v>0.4858511362107304</v>
+        <v>0.3019404254426097</v>
       </c>
       <c r="O4">
-        <v>0.5199698855198917</v>
+        <v>0.4858511362107303</v>
       </c>
       <c r="P4">
-        <v>0.5199698855198917</v>
+        <v>0.5199698855198915</v>
       </c>
       <c r="Q4">
-        <v>0.5427384591416515</v>
+        <v>0.5199698855198915</v>
       </c>
       <c r="R4">
-        <v>0.5427384591416515</v>
+        <v>0.5427384591416514</v>
       </c>
       <c r="S4">
-        <v>0.6921841432060034</v>
+        <v>0.5427384591416514</v>
       </c>
       <c r="T4">
-        <v>0.6921841432060034</v>
+        <v>0.6921841432060033</v>
       </c>
       <c r="U4">
-        <v>0.7851086905990435</v>
+        <v>0.6921841432060033</v>
       </c>
       <c r="V4">
-        <v>0.7851086905990435</v>
+        <v>0.7851086905990434</v>
       </c>
       <c r="W4">
-        <v>0.8588454582587746</v>
+        <v>0.7851086905990434</v>
       </c>
       <c r="X4">
-        <v>0.882306110055334</v>
+        <v>0.8588454582587743</v>
       </c>
       <c r="Y4">
-        <v>0.8981109504593144</v>
+        <v>0.8823061100553338</v>
       </c>
       <c r="Z4">
-        <v>0.9824667724000683</v>
+        <v>0.8981109504593142</v>
       </c>
       <c r="AA4">
-        <v>0.9958112559982791</v>
+        <v>0.9824667724000681</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9958112559982789</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2194,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.03201702865315273</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.06016804624925816</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1928587180192727</v>
-      </c>
-      <c r="G5">
-        <v>0.2294080385431916</v>
       </c>
       <c r="H5">
         <v>0.2294080385431916</v>
@@ -2215,58 +2263,58 @@
         <v>0.2294080385431916</v>
       </c>
       <c r="K5">
+        <v>0.2294080385431916</v>
+      </c>
+      <c r="L5">
         <v>0.2540933750785921</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.2589368669723479</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.2940613701900838</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.4210550035263819</v>
-      </c>
-      <c r="O5">
-        <v>0.5047485260117646</v>
       </c>
       <c r="P5">
         <v>0.5047485260117646</v>
       </c>
       <c r="Q5">
+        <v>0.5047485260117646</v>
+      </c>
+      <c r="R5">
         <v>0.5094077756978154</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.513990562423844</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.641842478747455</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.6734824344397887</v>
-      </c>
-      <c r="U5">
-        <v>0.7479017879429738</v>
       </c>
       <c r="V5">
         <v>0.7479017879429738</v>
       </c>
       <c r="W5">
+        <v>0.7479017879429738</v>
+      </c>
+      <c r="X5">
         <v>0.8411775866357829</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.8477418883762335</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.8765950110728292</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.9511315659713698</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.9914005313356236</v>
-      </c>
-      <c r="AB5">
-        <v>0.9974281496160775</v>
       </c>
       <c r="AC5">
         <v>0.9974281496160775</v>
@@ -2275,7 +2323,7 @@
         <v>0.9974281496160775</v>
       </c>
       <c r="AE5">
-        <v>0.9992925985028289</v>
+        <v>0.9974281496160775</v>
       </c>
       <c r="AF5">
         <v>0.9992925985028289</v>
@@ -2287,12 +2335,15 @@
         <v>0.9992925985028289</v>
       </c>
       <c r="AI5">
+        <v>0.9992925985028289</v>
+      </c>
+      <c r="AJ5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2301,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08830773019725748</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0.08830773019725748</v>
       </c>
       <c r="F6">
+        <v>0.08830773019725748</v>
+      </c>
+      <c r="G6">
         <v>0.2303814346467753</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.2621423097864442</v>
-      </c>
-      <c r="H6">
-        <v>0.2682841865569011</v>
       </c>
       <c r="I6">
         <v>0.2682841865569011</v>
@@ -2325,58 +2376,58 @@
         <v>0.2682841865569011</v>
       </c>
       <c r="L6">
+        <v>0.2682841865569011</v>
+      </c>
+      <c r="M6">
         <v>0.3003590274793072</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.3012388303529043</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.4212516271070783</v>
-      </c>
-      <c r="O6">
-        <v>0.464085149682407</v>
       </c>
       <c r="P6">
         <v>0.464085149682407</v>
       </c>
       <c r="Q6">
-        <v>0.4690915067937929</v>
+        <v>0.464085149682407</v>
       </c>
       <c r="R6">
         <v>0.4690915067937929</v>
       </c>
       <c r="S6">
+        <v>0.4690915067937929</v>
+      </c>
+      <c r="T6">
         <v>0.6183948209402954</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.625516592705867</v>
-      </c>
-      <c r="U6">
-        <v>0.7300743975400705</v>
       </c>
       <c r="V6">
         <v>0.7300743975400705</v>
       </c>
       <c r="W6">
+        <v>0.7300743975400705</v>
+      </c>
+      <c r="X6">
         <v>0.8388180930894696</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.8508185044809624</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.887247490789739</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.9540340146097296</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.9833638856308393</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.9902441545217571</v>
-      </c>
-      <c r="AC6">
-        <v>0.9965798743070081</v>
       </c>
       <c r="AD6">
         <v>0.9965798743070081</v>
@@ -2385,21 +2436,24 @@
         <v>0.9965798743070081</v>
       </c>
       <c r="AF6">
+        <v>0.9965798743070081</v>
+      </c>
+      <c r="AG6">
         <v>0.9967161569015679</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.9987166388589735</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.9998125862704677</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2408,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.03380887104435321</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.04286438952926429</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1685771223503572</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.2288373090702331</v>
-      </c>
-      <c r="H7">
-        <v>0.2311197335552511</v>
       </c>
       <c r="I7">
         <v>0.2311197335552511</v>
@@ -2429,55 +2483,55 @@
         <v>0.2311197335552511</v>
       </c>
       <c r="K7">
-        <v>0.2630161881029605</v>
+        <v>0.2311197335552511</v>
       </c>
       <c r="L7">
         <v>0.2630161881029605</v>
       </c>
       <c r="M7">
+        <v>0.2630161881029605</v>
+      </c>
+      <c r="N7">
         <v>0.2863623488802149</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.4427826676689535</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.5625345721794117</v>
-      </c>
-      <c r="P7">
-        <v>0.5709257405337034</v>
       </c>
       <c r="Q7">
         <v>0.5709257405337034</v>
       </c>
       <c r="R7">
+        <v>0.5709257405337034</v>
+      </c>
+      <c r="S7">
         <v>0.5929923019717648</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.6607467582520843</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.7057173180077601</v>
-      </c>
-      <c r="U7">
-        <v>0.7684601449500933</v>
       </c>
       <c r="V7">
         <v>0.7684601449500933</v>
       </c>
       <c r="W7">
-        <v>0.871749201720469</v>
+        <v>0.7684601449500933</v>
       </c>
       <c r="X7">
         <v>0.871749201720469</v>
       </c>
       <c r="Y7">
+        <v>0.871749201720469</v>
+      </c>
+      <c r="Z7">
         <v>0.9079815342126523</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.9415795252688594</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -2503,10 +2557,13 @@
       <c r="AI7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2515,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01318869278760472</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.06132871680372082</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.09695064590033134</v>
-      </c>
-      <c r="G8">
-        <v>0.211029403922951</v>
       </c>
       <c r="H8">
         <v>0.211029403922951</v>
@@ -2533,58 +2590,58 @@
         <v>0.211029403922951</v>
       </c>
       <c r="J8">
+        <v>0.211029403922951</v>
+      </c>
+      <c r="K8">
         <v>0.2177355432065068</v>
-      </c>
-      <c r="K8">
-        <v>0.2386916358918674</v>
       </c>
       <c r="L8">
         <v>0.2386916358918674</v>
       </c>
       <c r="M8">
+        <v>0.2386916358918674</v>
+      </c>
+      <c r="N8">
         <v>0.257783092369483</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.3406460345387897</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.4784767473639079</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.4795377741097209</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.4797550512652282</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.512418773312178</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.5581711579796514</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.6469066760558194</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.6837922707688464</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.6989998558587942</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.8006219263956411</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.804926306890592</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.8490819333116113</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.868410512278545</v>
-      </c>
-      <c r="AA8">
-        <v>0.9730055174275151</v>
       </c>
       <c r="AB8">
         <v>0.9730055174275151</v>
@@ -2596,24 +2653,27 @@
         <v>0.9730055174275151</v>
       </c>
       <c r="AE8">
+        <v>0.9730055174275151</v>
+      </c>
+      <c r="AF8">
         <v>0.977546096583135</v>
-      </c>
-      <c r="AF8">
-        <v>0.978237486256553</v>
       </c>
       <c r="AG8">
         <v>0.978237486256553</v>
       </c>
       <c r="AH8">
+        <v>0.978237486256553</v>
+      </c>
+      <c r="AI8">
         <v>0.9837128033907386</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2622,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1161588072588543</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.1161588072588543</v>
       </c>
       <c r="F9">
+        <v>0.1161588072588543</v>
+      </c>
+      <c r="G9">
         <v>0.2685725592028891</v>
-      </c>
-      <c r="G9">
-        <v>0.2925607713822768</v>
       </c>
       <c r="H9">
         <v>0.2925607713822768</v>
@@ -2643,55 +2703,55 @@
         <v>0.2925607713822768</v>
       </c>
       <c r="K9">
+        <v>0.2925607713822768</v>
+      </c>
+      <c r="L9">
         <v>0.3024832708776184</v>
-      </c>
-      <c r="L9">
-        <v>0.3131949461726862</v>
       </c>
       <c r="M9">
         <v>0.3131949461726862</v>
       </c>
       <c r="N9">
+        <v>0.3131949461726862</v>
+      </c>
+      <c r="O9">
         <v>0.4976455999206888</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.5296657371886686</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.5416291929733867</v>
-      </c>
-      <c r="Q9">
-        <v>0.5507745357881271</v>
       </c>
       <c r="R9">
         <v>0.5507745357881271</v>
       </c>
       <c r="S9">
-        <v>0.6895285643216097</v>
+        <v>0.5507745357881271</v>
       </c>
       <c r="T9">
         <v>0.6895285643216097</v>
       </c>
       <c r="U9">
-        <v>0.7742394540623081</v>
+        <v>0.6895285643216097</v>
       </c>
       <c r="V9">
         <v>0.7742394540623081</v>
       </c>
       <c r="W9">
+        <v>0.7742394540623081</v>
+      </c>
+      <c r="X9">
         <v>0.8692034772938025</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.8797257520028918</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.8891321666555679</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.974789676086709</v>
-      </c>
-      <c r="AA9">
-        <v>0.9934094262548497</v>
       </c>
       <c r="AB9">
         <v>0.9934094262548497</v>
@@ -2712,15 +2772,18 @@
         <v>0.9934094262548497</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2729,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.01564894108911755</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.04975906587611097</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.1199540072929021</v>
-      </c>
-      <c r="G10">
-        <v>0.2323012997920403</v>
       </c>
       <c r="H10">
         <v>0.2323012997920403</v>
@@ -2747,61 +2810,61 @@
         <v>0.2323012997920403</v>
       </c>
       <c r="J10">
+        <v>0.2323012997920403</v>
+      </c>
+      <c r="K10">
         <v>0.2445843813789057</v>
-      </c>
-      <c r="K10">
-        <v>0.2667911422874768</v>
       </c>
       <c r="L10">
         <v>0.2667911422874768</v>
       </c>
       <c r="M10">
+        <v>0.2667911422874768</v>
+      </c>
+      <c r="N10">
         <v>0.2966466137914065</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.3852322625880522</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.513834900707595</v>
-      </c>
-      <c r="P10">
-        <v>0.5198871473324325</v>
       </c>
       <c r="Q10">
         <v>0.5198871473324325</v>
       </c>
       <c r="R10">
+        <v>0.5198871473324325</v>
+      </c>
+      <c r="S10">
         <v>0.5438729523694757</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.6114810641664356</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.6828697001852504</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.7339340462634508</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.7389011855103681</v>
-      </c>
-      <c r="W10">
-        <v>0.8427280783626728</v>
       </c>
       <c r="X10">
         <v>0.8427280783626728</v>
       </c>
       <c r="Y10">
+        <v>0.8427280783626728</v>
+      </c>
+      <c r="Z10">
         <v>0.8921813208148881</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.9116598227729801</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.9760155896257146</v>
-      </c>
-      <c r="AB10">
-        <v>0.9764905876614638</v>
       </c>
       <c r="AC10">
         <v>0.9764905876614638</v>
@@ -2810,7 +2873,7 @@
         <v>0.9764905876614638</v>
       </c>
       <c r="AE10">
-        <v>0.9844084989556062</v>
+        <v>0.9764905876614638</v>
       </c>
       <c r="AF10">
         <v>0.9844084989556062</v>
@@ -2819,15 +2882,18 @@
         <v>0.9844084989556062</v>
       </c>
       <c r="AH10">
+        <v>0.9844084989556062</v>
+      </c>
+      <c r="AI10">
         <v>0.9905728123441265</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2836,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.02691046466322188</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.07026609553392947</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.1196662513014618</v>
-      </c>
-      <c r="G11">
-        <v>0.2299541698378199</v>
       </c>
       <c r="H11">
         <v>0.2299541698378199</v>
@@ -2854,58 +2920,58 @@
         <v>0.2299541698378199</v>
       </c>
       <c r="J11">
+        <v>0.2299541698378199</v>
+      </c>
+      <c r="K11">
         <v>0.2412624167086238</v>
-      </c>
-      <c r="K11">
-        <v>0.2570606870935355</v>
       </c>
       <c r="L11">
         <v>0.2570606870935355</v>
       </c>
       <c r="M11">
+        <v>0.2570606870935355</v>
+      </c>
+      <c r="N11">
         <v>0.2854174231892214</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.3645579369476719</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.5050042656626224</v>
-      </c>
-      <c r="P11">
-        <v>0.5070960003325929</v>
       </c>
       <c r="Q11">
         <v>0.5070960003325929</v>
       </c>
       <c r="R11">
+        <v>0.5070960003325929</v>
+      </c>
+      <c r="S11">
         <v>0.5318693398726428</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.5894655315162048</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.687391471887408</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.7160974597414272</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.7233015184089485</v>
-      </c>
-      <c r="W11">
-        <v>0.8281738333517114</v>
       </c>
       <c r="X11">
         <v>0.8281738333517114</v>
       </c>
       <c r="Y11">
+        <v>0.8281738333517114</v>
+      </c>
+      <c r="Z11">
         <v>0.8757294501229428</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.8901213209215149</v>
-      </c>
-      <c r="AA11">
-        <v>0.9840160498917112</v>
       </c>
       <c r="AB11">
         <v>0.9840160498917112</v>
@@ -2917,7 +2983,7 @@
         <v>0.9840160498917112</v>
       </c>
       <c r="AE11">
-        <v>0.9841466553257274</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AF11">
         <v>0.9841466553257274</v>
@@ -2926,9 +2992,12 @@
         <v>0.9841466553257274</v>
       </c>
       <c r="AH11">
+        <v>0.9841466553257274</v>
+      </c>
+      <c r="AI11">
         <v>0.9904124016339581</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1</v>
       </c>
     </row>
@@ -2947,57 +3016,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3015,30 +3084,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3056,36 +3125,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5199698855198917</v>
+        <v>0.5199698855198915</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3097,30 +3166,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3138,30 +3207,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3179,30 +3248,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -3220,30 +3289,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3261,30 +3330,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3302,30 +3371,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -3343,30 +3412,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3384,16 +3453,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3411,57 +3480,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3479,30 +3548,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3520,36 +3589,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7851086905990435</v>
+        <v>0.7851086905990434</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -3561,30 +3630,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3602,30 +3671,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3643,30 +3712,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -3684,30 +3753,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3725,30 +3794,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3766,30 +3835,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -3807,30 +3876,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3848,16 +3917,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3875,57 +3944,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3943,30 +4012,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3984,36 +4053,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8588454582587746</v>
+        <v>0.8588454582587743</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -4025,30 +4094,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4066,30 +4135,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4107,30 +4176,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -4148,30 +4217,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4189,30 +4258,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4230,30 +4299,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -4271,30 +4340,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4312,16 +4381,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4339,57 +4408,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4407,30 +4476,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4448,36 +4517,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9824667724000683</v>
+        <v>0.9824667724000681</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -4489,30 +4558,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4530,30 +4599,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4571,30 +4640,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -4612,30 +4681,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4653,30 +4722,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4694,30 +4763,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -4735,30 +4804,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4776,16 +4845,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -562,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,1004 +671,974 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.122726718628815</v>
+      </c>
+      <c r="E2">
+        <v>0.01311574586843905</v>
+      </c>
+      <c r="F2">
+        <v>0.1343467079923847</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.003308483122319739</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.002776319182406289</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.03905258620256639</v>
+      </c>
+      <c r="M2">
+        <v>0.0239509219783778</v>
+      </c>
+      <c r="N2">
+        <v>0.130497217893794</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.000850249077856523</v>
+      </c>
+      <c r="Q2">
+        <v>0.01971850693577964</v>
+      </c>
+      <c r="R2">
+        <v>0.04920263702468185</v>
+      </c>
+      <c r="S2">
+        <v>0.1287969092317171</v>
+      </c>
+      <c r="T2">
+        <v>0.01866140470656135</v>
+      </c>
+      <c r="U2">
+        <v>0.04102058340769893</v>
+      </c>
+      <c r="V2">
+        <v>0.06526671889105058</v>
+      </c>
+      <c r="W2">
+        <v>0.02650726425270263</v>
+      </c>
+      <c r="X2">
+        <v>0.05462341053301895</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.1151172500602111</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.004658711781692435</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.0008858561456110773</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.001546625900381074</v>
+      </c>
+      <c r="AH2">
+        <v>0.003369171181933632</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.122726718628815</v>
-      </c>
-      <c r="F2">
-        <v>0.01311574586843905</v>
-      </c>
-      <c r="G2">
-        <v>0.1343467079923847</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.003308483122319739</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.002776319182406289</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.03905258620256639</v>
-      </c>
-      <c r="N2">
-        <v>0.0239509219783778</v>
-      </c>
-      <c r="O2">
-        <v>0.130497217893794</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.000850249077856523</v>
-      </c>
-      <c r="R2">
-        <v>0.01971850693577964</v>
-      </c>
-      <c r="S2">
-        <v>0.04920263702468185</v>
-      </c>
-      <c r="T2">
-        <v>0.1287969092317171</v>
-      </c>
-      <c r="U2">
-        <v>0.01866140470656135</v>
-      </c>
-      <c r="V2">
-        <v>0.04102058340769893</v>
-      </c>
-      <c r="W2">
-        <v>0.06526671889105058</v>
-      </c>
-      <c r="X2">
-        <v>0.02650726425270263</v>
-      </c>
-      <c r="Y2">
-        <v>0.05462341053301895</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0.1151172500602111</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0.004658711781692435</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.0008858561456110773</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.001546625900381074</v>
-      </c>
-      <c r="AI2">
-        <v>0.003369171181933632</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1288952278538678</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.1369421824239991</v>
+      </c>
+      <c r="G3">
+        <v>0.01250606840903117</v>
+      </c>
+      <c r="H3">
+        <v>0.005613768536574537</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.03713956962796854</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.1555739733708611</v>
+      </c>
+      <c r="O3">
+        <v>0.008391783264083082</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.01023796718370626</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.1847260263322362</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.07800450979854914</v>
+      </c>
+      <c r="V3">
+        <v>0.007260945111613887</v>
+      </c>
+      <c r="W3">
+        <v>0.09474830441764875</v>
+      </c>
+      <c r="X3">
+        <v>0.01959815287625102</v>
+      </c>
+      <c r="Y3">
+        <v>0.006897422420618662</v>
+      </c>
+      <c r="Z3">
+        <v>0.1025832713913193</v>
+      </c>
+      <c r="AA3">
+        <v>0.00897556509315715</v>
+      </c>
+      <c r="AB3">
+        <v>0.001905261888514233</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1288952278538678</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.1369421824239991</v>
-      </c>
-      <c r="H3">
-        <v>0.01250606840903117</v>
-      </c>
-      <c r="I3">
-        <v>0.005613768536574537</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.03713956962796854</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.1555739733708611</v>
-      </c>
-      <c r="P3">
-        <v>0.008391783264083082</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.01023796718370626</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.1847260263322362</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.07800450979854914</v>
-      </c>
-      <c r="W3">
-        <v>0.007260945111613887</v>
-      </c>
-      <c r="X3">
-        <v>0.09474830441764875</v>
-      </c>
-      <c r="Y3">
-        <v>0.01959815287625102</v>
-      </c>
-      <c r="Z3">
-        <v>0.006897422420618662</v>
-      </c>
-      <c r="AA3">
-        <v>0.1025832713913193</v>
-      </c>
-      <c r="AB3">
-        <v>0.00897556509315715</v>
-      </c>
-      <c r="AC3">
-        <v>0.001905261888514233</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.06638072120141608</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.1659617965865109</v>
+      </c>
+      <c r="G4">
+        <v>0.02784056975527577</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.006140798853084331</v>
+      </c>
+      <c r="L4">
+        <v>0.03561653904632267</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.1839107107681206</v>
+      </c>
+      <c r="O4">
+        <v>0.03411874930916124</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.02276857362175983</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.1494456840643519</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.0929245473930401</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.07373676765973097</v>
+      </c>
+      <c r="X4">
+        <v>0.02346065179655939</v>
+      </c>
+      <c r="Y4">
+        <v>0.01580484040398044</v>
+      </c>
+      <c r="Z4">
+        <v>0.08435582194075385</v>
+      </c>
+      <c r="AA4">
+        <v>0.01334448359821085</v>
+      </c>
+      <c r="AB4">
+        <v>0.004188744001720984</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.06638072120141605</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.1659617965865109</v>
-      </c>
-      <c r="H4">
-        <v>0.02784056975527577</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.00614079885308433</v>
-      </c>
-      <c r="M4">
-        <v>0.03561653904632267</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.1839107107681205</v>
-      </c>
-      <c r="P4">
-        <v>0.03411874930916123</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.02276857362175983</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.1494456840643519</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.09292454739304011</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.07373676765973097</v>
-      </c>
-      <c r="Y4">
-        <v>0.02346065179655939</v>
-      </c>
-      <c r="Z4">
-        <v>0.01580484040398044</v>
-      </c>
-      <c r="AA4">
-        <v>0.08435582194075385</v>
-      </c>
-      <c r="AB4">
-        <v>0.01334448359821085</v>
-      </c>
-      <c r="AC4">
-        <v>0.004188744001720984</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.03201702865315273</v>
+      </c>
+      <c r="E5">
+        <v>0.02815101759610543</v>
+      </c>
+      <c r="F5">
+        <v>0.1326906717700145</v>
+      </c>
+      <c r="G5">
+        <v>0.03654932052391887</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.0246853365354006</v>
+      </c>
+      <c r="L5">
+        <v>0.004843491893755767</v>
+      </c>
+      <c r="M5">
+        <v>0.03512450321773592</v>
+      </c>
+      <c r="N5">
+        <v>0.126993633336298</v>
+      </c>
+      <c r="O5">
+        <v>0.08369352248538275</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.004659249686050805</v>
+      </c>
+      <c r="R5">
+        <v>0.004582786726028616</v>
+      </c>
+      <c r="S5">
+        <v>0.127851916323611</v>
+      </c>
+      <c r="T5">
+        <v>0.03163995569233369</v>
+      </c>
+      <c r="U5">
+        <v>0.07441935350318503</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.09327579869280914</v>
+      </c>
+      <c r="X5">
+        <v>0.006564301740450681</v>
+      </c>
+      <c r="Y5">
+        <v>0.0288531226965957</v>
+      </c>
+      <c r="Z5">
+        <v>0.07453655489854065</v>
+      </c>
+      <c r="AA5">
+        <v>0.04026896536425374</v>
+      </c>
+      <c r="AB5">
+        <v>0.006027618280453911</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.001864448886751455</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0.0007074014971711427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.03201702865315273</v>
-      </c>
-      <c r="F5">
-        <v>0.02815101759610543</v>
-      </c>
-      <c r="G5">
-        <v>0.1326906717700145</v>
-      </c>
-      <c r="H5">
-        <v>0.03654932052391887</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.0246853365354006</v>
-      </c>
-      <c r="M5">
-        <v>0.004843491893755767</v>
-      </c>
-      <c r="N5">
-        <v>0.03512450321773592</v>
-      </c>
-      <c r="O5">
-        <v>0.126993633336298</v>
-      </c>
-      <c r="P5">
-        <v>0.08369352248538275</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.004659249686050805</v>
-      </c>
-      <c r="S5">
-        <v>0.004582786726028616</v>
-      </c>
-      <c r="T5">
-        <v>0.127851916323611</v>
-      </c>
-      <c r="U5">
-        <v>0.03163995569233369</v>
-      </c>
-      <c r="V5">
-        <v>0.07441935350318503</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.09327579869280914</v>
-      </c>
-      <c r="Y5">
-        <v>0.006564301740450681</v>
-      </c>
-      <c r="Z5">
-        <v>0.0288531226965957</v>
-      </c>
-      <c r="AA5">
-        <v>0.07453655489854065</v>
-      </c>
-      <c r="AB5">
-        <v>0.04026896536425374</v>
-      </c>
-      <c r="AC5">
-        <v>0.006027618280453911</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.001864448886751455</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0.0007074014971711427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.08830773019725748</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.1420737044495178</v>
+      </c>
+      <c r="G6">
+        <v>0.03176087513966892</v>
+      </c>
+      <c r="H6">
+        <v>0.006141876770456872</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.03207484092240615</v>
+      </c>
+      <c r="M6">
+        <v>0.0008798028735971491</v>
+      </c>
+      <c r="N6">
+        <v>0.120012796754174</v>
+      </c>
+      <c r="O6">
+        <v>0.04283352257532872</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.005006357111385811</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.1493033141465026</v>
+      </c>
+      <c r="T6">
+        <v>0.007121771765571628</v>
+      </c>
+      <c r="U6">
+        <v>0.1045578048342036</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.1087436955493991</v>
+      </c>
+      <c r="X6">
+        <v>0.01200041139149277</v>
+      </c>
+      <c r="Y6">
+        <v>0.03642898630877658</v>
+      </c>
+      <c r="Z6">
+        <v>0.06678652381999066</v>
+      </c>
+      <c r="AA6">
+        <v>0.02932987102110975</v>
+      </c>
+      <c r="AB6">
+        <v>0.006880268890917715</v>
+      </c>
+      <c r="AC6">
+        <v>0.006335719785251</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.0001362825945597526</v>
+      </c>
+      <c r="AG6">
+        <v>0.002000481957405618</v>
+      </c>
+      <c r="AH6">
+        <v>0.001095947411494071</v>
+      </c>
+      <c r="AI6">
+        <v>0.000187413729532568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.08830773019725748</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.1420737044495178</v>
-      </c>
-      <c r="H6">
-        <v>0.03176087513966892</v>
-      </c>
-      <c r="I6">
-        <v>0.006141876770456872</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0.03207484092240615</v>
-      </c>
-      <c r="N6">
-        <v>0.0008798028735971491</v>
-      </c>
-      <c r="O6">
-        <v>0.120012796754174</v>
-      </c>
-      <c r="P6">
-        <v>0.04283352257532872</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0.005006357111385811</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0.1493033141465026</v>
-      </c>
-      <c r="U6">
-        <v>0.007121771765571628</v>
-      </c>
-      <c r="V6">
-        <v>0.1045578048342036</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.1087436955493991</v>
-      </c>
-      <c r="Y6">
-        <v>0.01200041139149277</v>
-      </c>
-      <c r="Z6">
-        <v>0.03642898630877658</v>
-      </c>
-      <c r="AA6">
-        <v>0.06678652381999066</v>
-      </c>
-      <c r="AB6">
-        <v>0.02932987102110975</v>
-      </c>
-      <c r="AC6">
-        <v>0.006880268890917715</v>
-      </c>
-      <c r="AD6">
-        <v>0.006335719785251</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0.0001362825945597526</v>
-      </c>
-      <c r="AH6">
-        <v>0.002000481957405618</v>
-      </c>
-      <c r="AI6">
-        <v>0.001095947411494071</v>
-      </c>
-      <c r="AJ6">
-        <v>0.000187413729532568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.03380887104435321</v>
+      </c>
+      <c r="E7">
+        <v>0.009055518484911091</v>
+      </c>
+      <c r="F7">
+        <v>0.1257127328210929</v>
+      </c>
+      <c r="G7">
+        <v>0.06026018671987595</v>
+      </c>
+      <c r="H7">
+        <v>0.002282424485018034</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.0318964545477093</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.02334616077725446</v>
+      </c>
+      <c r="N7">
+        <v>0.1564203187887386</v>
+      </c>
+      <c r="O7">
+        <v>0.1197519045104582</v>
+      </c>
+      <c r="P7">
+        <v>0.008391168354291618</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.0220665614380614</v>
+      </c>
+      <c r="S7">
+        <v>0.06775445628031955</v>
+      </c>
+      <c r="T7">
+        <v>0.04497055975567577</v>
+      </c>
+      <c r="U7">
+        <v>0.06274282694233324</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.1032890567703757</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0.03623233249218322</v>
+      </c>
+      <c r="Z7">
+        <v>0.03359799105620706</v>
+      </c>
+      <c r="AA7">
+        <v>0.05842047473114074</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.03380887104435321</v>
-      </c>
-      <c r="F7">
-        <v>0.009055518484911091</v>
-      </c>
-      <c r="G7">
-        <v>0.1257127328210929</v>
-      </c>
-      <c r="H7">
-        <v>0.06026018671987595</v>
-      </c>
-      <c r="I7">
-        <v>0.002282424485018034</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.0318964545477093</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.02334616077725446</v>
-      </c>
-      <c r="O7">
-        <v>0.1564203187887386</v>
-      </c>
-      <c r="P7">
-        <v>0.1197519045104582</v>
-      </c>
-      <c r="Q7">
-        <v>0.008391168354291618</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.0220665614380614</v>
-      </c>
-      <c r="T7">
-        <v>0.06775445628031955</v>
-      </c>
-      <c r="U7">
-        <v>0.04497055975567577</v>
-      </c>
-      <c r="V7">
-        <v>0.06274282694233324</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0.1032890567703757</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0.03623233249218322</v>
-      </c>
-      <c r="AA7">
-        <v>0.03359799105620706</v>
-      </c>
-      <c r="AB7">
-        <v>0.05842047473114074</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.01318869278760472</v>
+      </c>
+      <c r="E8">
+        <v>0.0481400240161161</v>
+      </c>
+      <c r="F8">
+        <v>0.03562192909661051</v>
+      </c>
+      <c r="G8">
+        <v>0.1140787580226197</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.00670613928355581</v>
+      </c>
+      <c r="K8">
+        <v>0.02095609268536057</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.01909145647761558</v>
+      </c>
+      <c r="N8">
+        <v>0.08286294216930669</v>
+      </c>
+      <c r="O8">
+        <v>0.1378307128251182</v>
+      </c>
+      <c r="P8">
+        <v>0.001061026745813034</v>
+      </c>
+      <c r="Q8">
+        <v>0.0002172771555072645</v>
+      </c>
+      <c r="R8">
+        <v>0.03266372204694978</v>
+      </c>
+      <c r="S8">
+        <v>0.0457523846674734</v>
+      </c>
+      <c r="T8">
+        <v>0.08873551807616797</v>
+      </c>
+      <c r="U8">
+        <v>0.03688559471302698</v>
+      </c>
+      <c r="V8">
+        <v>0.01520758508994774</v>
+      </c>
+      <c r="W8">
+        <v>0.1016220705368469</v>
+      </c>
+      <c r="X8">
+        <v>0.004304380494950838</v>
+      </c>
+      <c r="Y8">
+        <v>0.04415562642101933</v>
+      </c>
+      <c r="Z8">
+        <v>0.01932857896693373</v>
+      </c>
+      <c r="AA8">
+        <v>0.10459500514897</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.004540579155619903</v>
+      </c>
+      <c r="AF8">
+        <v>0.0006913896734181302</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.005475317134185583</v>
+      </c>
+      <c r="AI8">
+        <v>0.01628719660926162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.01318869278760472</v>
-      </c>
-      <c r="F8">
-        <v>0.0481400240161161</v>
-      </c>
-      <c r="G8">
-        <v>0.03562192909661051</v>
-      </c>
-      <c r="H8">
-        <v>0.1140787580226197</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0.00670613928355581</v>
-      </c>
-      <c r="L8">
-        <v>0.02095609268536057</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0.01909145647761558</v>
-      </c>
-      <c r="O8">
-        <v>0.08286294216930669</v>
-      </c>
-      <c r="P8">
-        <v>0.1378307128251182</v>
-      </c>
-      <c r="Q8">
-        <v>0.001061026745813034</v>
-      </c>
-      <c r="R8">
-        <v>0.0002172771555072645</v>
-      </c>
-      <c r="S8">
-        <v>0.03266372204694978</v>
-      </c>
-      <c r="T8">
-        <v>0.0457523846674734</v>
-      </c>
-      <c r="U8">
-        <v>0.08873551807616797</v>
-      </c>
-      <c r="V8">
-        <v>0.03688559471302698</v>
-      </c>
-      <c r="W8">
-        <v>0.01520758508994774</v>
-      </c>
-      <c r="X8">
-        <v>0.1016220705368469</v>
-      </c>
-      <c r="Y8">
-        <v>0.004304380494950838</v>
-      </c>
-      <c r="Z8">
-        <v>0.04415562642101933</v>
-      </c>
-      <c r="AA8">
-        <v>0.01932857896693373</v>
-      </c>
-      <c r="AB8">
-        <v>0.10459500514897</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.004540579155619903</v>
-      </c>
-      <c r="AG8">
-        <v>0.0006913896734181302</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0.005475317134185583</v>
-      </c>
-      <c r="AJ8">
-        <v>0.01628719660926162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1161588072588543</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.1524137519440348</v>
+      </c>
+      <c r="G9">
+        <v>0.02398821217938771</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.009922499495341627</v>
+      </c>
+      <c r="L9">
+        <v>0.01071167529506776</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.1844506537480026</v>
+      </c>
+      <c r="O9">
+        <v>0.03202013726797979</v>
+      </c>
+      <c r="P9">
+        <v>0.01196345578471817</v>
+      </c>
+      <c r="Q9">
+        <v>0.009145342814740345</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.1387540285334826</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.08471088974069836</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0949640232314944</v>
+      </c>
+      <c r="X9">
+        <v>0.01052227470908928</v>
+      </c>
+      <c r="Y9">
+        <v>0.009406414652676092</v>
+      </c>
+      <c r="Z9">
+        <v>0.085657509431141</v>
+      </c>
+      <c r="AA9">
+        <v>0.01861975016814079</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.006590573745150507</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1161588072588543</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.1524137519440348</v>
-      </c>
-      <c r="H9">
-        <v>0.02398821217938771</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.009922499495341627</v>
-      </c>
-      <c r="M9">
-        <v>0.01071167529506776</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.1844506537480026</v>
-      </c>
-      <c r="P9">
-        <v>0.03202013726797979</v>
-      </c>
-      <c r="Q9">
-        <v>0.01196345578471817</v>
-      </c>
-      <c r="R9">
-        <v>0.009145342814740345</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.1387540285334826</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0.08471088974069836</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0.0949640232314944</v>
-      </c>
-      <c r="Y9">
-        <v>0.01052227470908928</v>
-      </c>
-      <c r="Z9">
-        <v>0.009406414652676092</v>
-      </c>
-      <c r="AA9">
-        <v>0.085657509431141</v>
-      </c>
-      <c r="AB9">
-        <v>0.01861975016814079</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0.006590573745150507</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.01564894108911755</v>
+      </c>
+      <c r="E10">
+        <v>0.03411012478699343</v>
+      </c>
+      <c r="F10">
+        <v>0.07019494141679113</v>
+      </c>
+      <c r="G10">
+        <v>0.1123472924991382</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.01228308158686544</v>
+      </c>
+      <c r="K10">
+        <v>0.02220676090857105</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.02985547150392967</v>
+      </c>
+      <c r="N10">
+        <v>0.0885856487966457</v>
+      </c>
+      <c r="O10">
+        <v>0.1286026381195428</v>
+      </c>
+      <c r="P10">
+        <v>0.006052246624837546</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.02398580503704324</v>
+      </c>
+      <c r="S10">
+        <v>0.06760811179695983</v>
+      </c>
+      <c r="T10">
+        <v>0.07138863601881484</v>
+      </c>
+      <c r="U10">
+        <v>0.0510643460782004</v>
+      </c>
+      <c r="V10">
+        <v>0.00496713924691731</v>
+      </c>
+      <c r="W10">
+        <v>0.1038268928523047</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0.04945324245221529</v>
+      </c>
+      <c r="Z10">
+        <v>0.01947850195809203</v>
+      </c>
+      <c r="AA10">
+        <v>0.06435576685273446</v>
+      </c>
+      <c r="AB10">
+        <v>0.0004749980357492586</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.007917911294142398</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.006164313388520272</v>
+      </c>
+      <c r="AI10">
+        <v>0.009427187655873498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.01564894108911755</v>
-      </c>
-      <c r="F10">
-        <v>0.03411012478699343</v>
-      </c>
-      <c r="G10">
-        <v>0.07019494141679113</v>
-      </c>
-      <c r="H10">
-        <v>0.1123472924991382</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.01228308158686544</v>
-      </c>
-      <c r="L10">
-        <v>0.02220676090857105</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0.02985547150392967</v>
-      </c>
-      <c r="O10">
-        <v>0.0885856487966457</v>
-      </c>
-      <c r="P10">
-        <v>0.1286026381195428</v>
-      </c>
-      <c r="Q10">
-        <v>0.006052246624837546</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.02398580503704324</v>
-      </c>
-      <c r="T10">
-        <v>0.06760811179695983</v>
-      </c>
-      <c r="U10">
-        <v>0.07138863601881484</v>
-      </c>
-      <c r="V10">
-        <v>0.0510643460782004</v>
-      </c>
-      <c r="W10">
-        <v>0.00496713924691731</v>
-      </c>
-      <c r="X10">
-        <v>0.1038268928523047</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0.04945324245221529</v>
-      </c>
-      <c r="AA10">
-        <v>0.01947850195809203</v>
-      </c>
-      <c r="AB10">
-        <v>0.06435576685273446</v>
-      </c>
-      <c r="AC10">
-        <v>0.0004749980357492586</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0.007917911294142398</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0.006164313388520272</v>
-      </c>
-      <c r="AJ10">
-        <v>0.009427187655873498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -1679,79 +1646,79 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.02691046466322188</v>
       </c>
       <c r="E11">
-        <v>0.02691046466322188</v>
+        <v>0.0433556308707076</v>
       </c>
       <c r="F11">
-        <v>0.0433556308707076</v>
+        <v>0.04940015576753234</v>
       </c>
       <c r="G11">
-        <v>0.04940015576753234</v>
+        <v>0.1102879185363581</v>
       </c>
       <c r="H11">
-        <v>0.1102879185363581</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01130824687080398</v>
       </c>
       <c r="K11">
-        <v>0.01130824687080398</v>
+        <v>0.0157982703849117</v>
       </c>
       <c r="L11">
-        <v>0.0157982703849117</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02835673609568586</v>
       </c>
       <c r="N11">
-        <v>0.02835673609568586</v>
+        <v>0.07914051375845048</v>
       </c>
       <c r="O11">
-        <v>0.07914051375845048</v>
+        <v>0.1404463287149506</v>
       </c>
       <c r="P11">
-        <v>0.1404463287149506</v>
+        <v>0.002091734669970543</v>
       </c>
       <c r="Q11">
-        <v>0.002091734669970543</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.02477333954004986</v>
       </c>
       <c r="S11">
-        <v>0.02477333954004986</v>
+        <v>0.05759619164356199</v>
       </c>
       <c r="T11">
-        <v>0.05759619164356199</v>
+        <v>0.09792594037120315</v>
       </c>
       <c r="U11">
-        <v>0.09792594037120315</v>
+        <v>0.02870598785401918</v>
       </c>
       <c r="V11">
-        <v>0.02870598785401918</v>
+        <v>0.007204058667521312</v>
       </c>
       <c r="W11">
-        <v>0.007204058667521312</v>
+        <v>0.1048723149427628</v>
       </c>
       <c r="X11">
-        <v>0.1048723149427628</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.04755561677123142</v>
       </c>
       <c r="Z11">
-        <v>0.04755561677123142</v>
+        <v>0.01439187079857205</v>
       </c>
       <c r="AA11">
-        <v>0.01439187079857205</v>
+        <v>0.09389472897019634</v>
       </c>
       <c r="AB11">
-        <v>0.09389472897019634</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1760,21 +1727,18 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.0001306054340161872</v>
       </c>
       <c r="AF11">
-        <v>0.0001306054340161872</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.006265746308230598</v>
       </c>
       <c r="AI11">
-        <v>0.006265746308230598</v>
-      </c>
-      <c r="AJ11">
         <v>0.009587598366042302</v>
       </c>
     </row>
@@ -1785,15 +1749,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1897,13 +1861,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1912,85 +1873,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.122726718628815</v>
       </c>
       <c r="E2">
-        <v>0.122726718628815</v>
+        <v>0.1358424644972541</v>
       </c>
       <c r="F2">
-        <v>0.1358424644972541</v>
+        <v>0.2701891724896388</v>
       </c>
       <c r="G2">
         <v>0.2701891724896388</v>
       </c>
       <c r="H2">
-        <v>0.2701891724896388</v>
+        <v>0.2734976556119585</v>
       </c>
       <c r="I2">
         <v>0.2734976556119585</v>
       </c>
       <c r="J2">
-        <v>0.2734976556119585</v>
+        <v>0.2762739747943648</v>
       </c>
       <c r="K2">
         <v>0.2762739747943648</v>
       </c>
       <c r="L2">
-        <v>0.2762739747943648</v>
+        <v>0.3153265609969312</v>
       </c>
       <c r="M2">
-        <v>0.3153265609969312</v>
+        <v>0.339277482975309</v>
       </c>
       <c r="N2">
-        <v>0.339277482975309</v>
+        <v>0.469774700869103</v>
       </c>
       <c r="O2">
         <v>0.469774700869103</v>
       </c>
       <c r="P2">
-        <v>0.469774700869103</v>
+        <v>0.4706249499469595</v>
       </c>
       <c r="Q2">
-        <v>0.4706249499469595</v>
+        <v>0.4903434568827392</v>
       </c>
       <c r="R2">
-        <v>0.4903434568827392</v>
+        <v>0.539546093907421</v>
       </c>
       <c r="S2">
-        <v>0.539546093907421</v>
+        <v>0.6683430031391382</v>
       </c>
       <c r="T2">
-        <v>0.6683430031391382</v>
+        <v>0.6870044078456995</v>
       </c>
       <c r="U2">
-        <v>0.6870044078456995</v>
+        <v>0.7280249912533985</v>
       </c>
       <c r="V2">
-        <v>0.7280249912533985</v>
+        <v>0.7932917101444491</v>
       </c>
       <c r="W2">
-        <v>0.7932917101444491</v>
+        <v>0.8197989743971518</v>
       </c>
       <c r="X2">
-        <v>0.8197989743971518</v>
+        <v>0.8744223849301708</v>
       </c>
       <c r="Y2">
         <v>0.8744223849301708</v>
       </c>
       <c r="Z2">
-        <v>0.8744223849301708</v>
+        <v>0.9895396349903819</v>
       </c>
       <c r="AA2">
         <v>0.9895396349903819</v>
       </c>
       <c r="AB2">
-        <v>0.9895396349903819</v>
+        <v>0.9941983467720743</v>
       </c>
       <c r="AC2">
         <v>0.9941983467720743</v>
       </c>
       <c r="AD2">
-        <v>0.9941983467720743</v>
+        <v>0.9950842029176854</v>
       </c>
       <c r="AE2">
         <v>0.9950842029176854</v>
@@ -1999,21 +1960,18 @@
         <v>0.9950842029176854</v>
       </c>
       <c r="AG2">
-        <v>0.9950842029176854</v>
+        <v>0.9966308288180665</v>
       </c>
       <c r="AH2">
-        <v>0.9966308288180665</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2022,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1288952278538678</v>
       </c>
       <c r="E3">
         <v>0.1288952278538678</v>
       </c>
       <c r="F3">
-        <v>0.1288952278538678</v>
+        <v>0.2658374102778669</v>
       </c>
       <c r="G3">
-        <v>0.2658374102778669</v>
+        <v>0.2783434786868981</v>
       </c>
       <c r="H3">
-        <v>0.2783434786868981</v>
+        <v>0.2839572472234726</v>
       </c>
       <c r="I3">
         <v>0.2839572472234726</v>
@@ -2046,55 +2004,55 @@
         <v>0.2839572472234726</v>
       </c>
       <c r="L3">
-        <v>0.2839572472234726</v>
+        <v>0.3210968168514411</v>
       </c>
       <c r="M3">
         <v>0.3210968168514411</v>
       </c>
       <c r="N3">
-        <v>0.3210968168514411</v>
+        <v>0.4766707902223023</v>
       </c>
       <c r="O3">
-        <v>0.4766707902223023</v>
+        <v>0.4850625734863854</v>
       </c>
       <c r="P3">
         <v>0.4850625734863854</v>
       </c>
       <c r="Q3">
-        <v>0.4850625734863854</v>
+        <v>0.4953005406700917</v>
       </c>
       <c r="R3">
         <v>0.4953005406700917</v>
       </c>
       <c r="S3">
-        <v>0.4953005406700917</v>
+        <v>0.6800265670023279</v>
       </c>
       <c r="T3">
         <v>0.6800265670023279</v>
       </c>
       <c r="U3">
-        <v>0.6800265670023279</v>
+        <v>0.758031076800877</v>
       </c>
       <c r="V3">
-        <v>0.758031076800877</v>
+        <v>0.7652920219124909</v>
       </c>
       <c r="W3">
-        <v>0.7652920219124909</v>
+        <v>0.8600403263301397</v>
       </c>
       <c r="X3">
-        <v>0.8600403263301397</v>
+        <v>0.8796384792063907</v>
       </c>
       <c r="Y3">
-        <v>0.8796384792063907</v>
+        <v>0.8865359016270093</v>
       </c>
       <c r="Z3">
-        <v>0.8865359016270093</v>
+        <v>0.9891191730183286</v>
       </c>
       <c r="AA3">
-        <v>0.9891191730183286</v>
+        <v>0.9980947381114857</v>
       </c>
       <c r="AB3">
-        <v>0.9980947381114857</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2117,124 +2075,118 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.06638072120141608</v>
+      </c>
+      <c r="E4">
+        <v>0.06638072120141608</v>
+      </c>
+      <c r="F4">
+        <v>0.232342517787927</v>
+      </c>
+      <c r="G4">
+        <v>0.2601830875432028</v>
+      </c>
+      <c r="H4">
+        <v>0.2601830875432028</v>
+      </c>
+      <c r="I4">
+        <v>0.2601830875432028</v>
+      </c>
+      <c r="J4">
+        <v>0.2601830875432028</v>
+      </c>
+      <c r="K4">
+        <v>0.2663238863962871</v>
+      </c>
+      <c r="L4">
+        <v>0.3019404254426098</v>
+      </c>
+      <c r="M4">
+        <v>0.3019404254426098</v>
+      </c>
+      <c r="N4">
+        <v>0.4858511362107304</v>
+      </c>
+      <c r="O4">
+        <v>0.5199698855198917</v>
+      </c>
+      <c r="P4">
+        <v>0.5199698855198917</v>
+      </c>
+      <c r="Q4">
+        <v>0.5427384591416515</v>
+      </c>
+      <c r="R4">
+        <v>0.5427384591416515</v>
+      </c>
+      <c r="S4">
+        <v>0.6921841432060034</v>
+      </c>
+      <c r="T4">
+        <v>0.6921841432060034</v>
+      </c>
+      <c r="U4">
+        <v>0.7851086905990435</v>
+      </c>
+      <c r="V4">
+        <v>0.7851086905990435</v>
+      </c>
+      <c r="W4">
+        <v>0.8588454582587746</v>
+      </c>
+      <c r="X4">
+        <v>0.882306110055334</v>
+      </c>
+      <c r="Y4">
+        <v>0.8981109504593144</v>
+      </c>
+      <c r="Z4">
+        <v>0.9824667724000683</v>
+      </c>
+      <c r="AA4">
+        <v>0.9958112559982791</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.06638072120141605</v>
-      </c>
-      <c r="F4">
-        <v>0.06638072120141605</v>
-      </c>
-      <c r="G4">
-        <v>0.232342517787927</v>
-      </c>
-      <c r="H4">
-        <v>0.2601830875432027</v>
-      </c>
-      <c r="I4">
-        <v>0.2601830875432027</v>
-      </c>
-      <c r="J4">
-        <v>0.2601830875432027</v>
-      </c>
-      <c r="K4">
-        <v>0.2601830875432027</v>
-      </c>
-      <c r="L4">
-        <v>0.2663238863962871</v>
-      </c>
-      <c r="M4">
-        <v>0.3019404254426097</v>
-      </c>
-      <c r="N4">
-        <v>0.3019404254426097</v>
-      </c>
-      <c r="O4">
-        <v>0.4858511362107303</v>
-      </c>
-      <c r="P4">
-        <v>0.5199698855198915</v>
-      </c>
-      <c r="Q4">
-        <v>0.5199698855198915</v>
-      </c>
-      <c r="R4">
-        <v>0.5427384591416514</v>
-      </c>
-      <c r="S4">
-        <v>0.5427384591416514</v>
-      </c>
-      <c r="T4">
-        <v>0.6921841432060033</v>
-      </c>
-      <c r="U4">
-        <v>0.6921841432060033</v>
-      </c>
-      <c r="V4">
-        <v>0.7851086905990434</v>
-      </c>
-      <c r="W4">
-        <v>0.7851086905990434</v>
-      </c>
-      <c r="X4">
-        <v>0.8588454582587743</v>
-      </c>
-      <c r="Y4">
-        <v>0.8823061100553338</v>
-      </c>
-      <c r="Z4">
-        <v>0.8981109504593142</v>
-      </c>
-      <c r="AA4">
-        <v>0.9824667724000681</v>
-      </c>
-      <c r="AB4">
-        <v>0.9958112559982789</v>
-      </c>
-      <c r="AC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -2242,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03201702865315273</v>
       </c>
       <c r="E5">
-        <v>0.03201702865315273</v>
+        <v>0.06016804624925816</v>
       </c>
       <c r="F5">
-        <v>0.06016804624925816</v>
+        <v>0.1928587180192727</v>
       </c>
       <c r="G5">
-        <v>0.1928587180192727</v>
+        <v>0.2294080385431916</v>
       </c>
       <c r="H5">
         <v>0.2294080385431916</v>
@@ -2263,58 +2215,58 @@
         <v>0.2294080385431916</v>
       </c>
       <c r="K5">
-        <v>0.2294080385431916</v>
+        <v>0.2540933750785921</v>
       </c>
       <c r="L5">
-        <v>0.2540933750785921</v>
+        <v>0.2589368669723479</v>
       </c>
       <c r="M5">
-        <v>0.2589368669723479</v>
+        <v>0.2940613701900838</v>
       </c>
       <c r="N5">
-        <v>0.2940613701900838</v>
+        <v>0.4210550035263819</v>
       </c>
       <c r="O5">
-        <v>0.4210550035263819</v>
+        <v>0.5047485260117646</v>
       </c>
       <c r="P5">
         <v>0.5047485260117646</v>
       </c>
       <c r="Q5">
-        <v>0.5047485260117646</v>
+        <v>0.5094077756978154</v>
       </c>
       <c r="R5">
-        <v>0.5094077756978154</v>
+        <v>0.513990562423844</v>
       </c>
       <c r="S5">
-        <v>0.513990562423844</v>
+        <v>0.641842478747455</v>
       </c>
       <c r="T5">
-        <v>0.641842478747455</v>
+        <v>0.6734824344397887</v>
       </c>
       <c r="U5">
-        <v>0.6734824344397887</v>
+        <v>0.7479017879429738</v>
       </c>
       <c r="V5">
         <v>0.7479017879429738</v>
       </c>
       <c r="W5">
-        <v>0.7479017879429738</v>
+        <v>0.8411775866357829</v>
       </c>
       <c r="X5">
-        <v>0.8411775866357829</v>
+        <v>0.8477418883762335</v>
       </c>
       <c r="Y5">
-        <v>0.8477418883762335</v>
+        <v>0.8765950110728292</v>
       </c>
       <c r="Z5">
-        <v>0.8765950110728292</v>
+        <v>0.9511315659713698</v>
       </c>
       <c r="AA5">
-        <v>0.9511315659713698</v>
+        <v>0.9914005313356236</v>
       </c>
       <c r="AB5">
-        <v>0.9914005313356236</v>
+        <v>0.9974281496160775</v>
       </c>
       <c r="AC5">
         <v>0.9974281496160775</v>
@@ -2323,7 +2275,7 @@
         <v>0.9974281496160775</v>
       </c>
       <c r="AE5">
-        <v>0.9974281496160775</v>
+        <v>0.9992925985028289</v>
       </c>
       <c r="AF5">
         <v>0.9992925985028289</v>
@@ -2335,15 +2287,12 @@
         <v>0.9992925985028289</v>
       </c>
       <c r="AI5">
-        <v>0.9992925985028289</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2352,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.08830773019725748</v>
       </c>
       <c r="E6">
         <v>0.08830773019725748</v>
       </c>
       <c r="F6">
-        <v>0.08830773019725748</v>
+        <v>0.2303814346467753</v>
       </c>
       <c r="G6">
-        <v>0.2303814346467753</v>
+        <v>0.2621423097864442</v>
       </c>
       <c r="H6">
-        <v>0.2621423097864442</v>
+        <v>0.2682841865569011</v>
       </c>
       <c r="I6">
         <v>0.2682841865569011</v>
@@ -2376,58 +2325,58 @@
         <v>0.2682841865569011</v>
       </c>
       <c r="L6">
-        <v>0.2682841865569011</v>
+        <v>0.3003590274793072</v>
       </c>
       <c r="M6">
-        <v>0.3003590274793072</v>
+        <v>0.3012388303529043</v>
       </c>
       <c r="N6">
-        <v>0.3012388303529043</v>
+        <v>0.4212516271070783</v>
       </c>
       <c r="O6">
-        <v>0.4212516271070783</v>
+        <v>0.464085149682407</v>
       </c>
       <c r="P6">
         <v>0.464085149682407</v>
       </c>
       <c r="Q6">
-        <v>0.464085149682407</v>
+        <v>0.4690915067937929</v>
       </c>
       <c r="R6">
         <v>0.4690915067937929</v>
       </c>
       <c r="S6">
-        <v>0.4690915067937929</v>
+        <v>0.6183948209402954</v>
       </c>
       <c r="T6">
-        <v>0.6183948209402954</v>
+        <v>0.625516592705867</v>
       </c>
       <c r="U6">
-        <v>0.625516592705867</v>
+        <v>0.7300743975400705</v>
       </c>
       <c r="V6">
         <v>0.7300743975400705</v>
       </c>
       <c r="W6">
-        <v>0.7300743975400705</v>
+        <v>0.8388180930894696</v>
       </c>
       <c r="X6">
-        <v>0.8388180930894696</v>
+        <v>0.8508185044809624</v>
       </c>
       <c r="Y6">
-        <v>0.8508185044809624</v>
+        <v>0.887247490789739</v>
       </c>
       <c r="Z6">
-        <v>0.887247490789739</v>
+        <v>0.9540340146097296</v>
       </c>
       <c r="AA6">
-        <v>0.9540340146097296</v>
+        <v>0.9833638856308393</v>
       </c>
       <c r="AB6">
-        <v>0.9833638856308393</v>
+        <v>0.9902441545217571</v>
       </c>
       <c r="AC6">
-        <v>0.9902441545217571</v>
+        <v>0.9965798743070081</v>
       </c>
       <c r="AD6">
         <v>0.9965798743070081</v>
@@ -2436,24 +2385,21 @@
         <v>0.9965798743070081</v>
       </c>
       <c r="AF6">
-        <v>0.9965798743070081</v>
+        <v>0.9967161569015679</v>
       </c>
       <c r="AG6">
-        <v>0.9967161569015679</v>
+        <v>0.9987166388589735</v>
       </c>
       <c r="AH6">
-        <v>0.9987166388589735</v>
+        <v>0.9998125862704677</v>
       </c>
       <c r="AI6">
-        <v>0.9998125862704677</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2462,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.03380887104435321</v>
       </c>
       <c r="E7">
-        <v>0.03380887104435321</v>
+        <v>0.04286438952926429</v>
       </c>
       <c r="F7">
-        <v>0.04286438952926429</v>
+        <v>0.1685771223503572</v>
       </c>
       <c r="G7">
-        <v>0.1685771223503572</v>
+        <v>0.2288373090702331</v>
       </c>
       <c r="H7">
-        <v>0.2288373090702331</v>
+        <v>0.2311197335552511</v>
       </c>
       <c r="I7">
         <v>0.2311197335552511</v>
@@ -2483,55 +2429,55 @@
         <v>0.2311197335552511</v>
       </c>
       <c r="K7">
-        <v>0.2311197335552511</v>
+        <v>0.2630161881029605</v>
       </c>
       <c r="L7">
         <v>0.2630161881029605</v>
       </c>
       <c r="M7">
-        <v>0.2630161881029605</v>
+        <v>0.2863623488802149</v>
       </c>
       <c r="N7">
-        <v>0.2863623488802149</v>
+        <v>0.4427826676689535</v>
       </c>
       <c r="O7">
-        <v>0.4427826676689535</v>
+        <v>0.5625345721794117</v>
       </c>
       <c r="P7">
-        <v>0.5625345721794117</v>
+        <v>0.5709257405337034</v>
       </c>
       <c r="Q7">
         <v>0.5709257405337034</v>
       </c>
       <c r="R7">
-        <v>0.5709257405337034</v>
+        <v>0.5929923019717648</v>
       </c>
       <c r="S7">
-        <v>0.5929923019717648</v>
+        <v>0.6607467582520843</v>
       </c>
       <c r="T7">
-        <v>0.6607467582520843</v>
+        <v>0.7057173180077601</v>
       </c>
       <c r="U7">
-        <v>0.7057173180077601</v>
+        <v>0.7684601449500933</v>
       </c>
       <c r="V7">
         <v>0.7684601449500933</v>
       </c>
       <c r="W7">
-        <v>0.7684601449500933</v>
+        <v>0.871749201720469</v>
       </c>
       <c r="X7">
         <v>0.871749201720469</v>
       </c>
       <c r="Y7">
-        <v>0.871749201720469</v>
+        <v>0.9079815342126523</v>
       </c>
       <c r="Z7">
-        <v>0.9079815342126523</v>
+        <v>0.9415795252688594</v>
       </c>
       <c r="AA7">
-        <v>0.9415795252688594</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -2557,13 +2503,10 @@
       <c r="AI7">
         <v>1</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2572,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01318869278760472</v>
       </c>
       <c r="E8">
-        <v>0.01318869278760472</v>
+        <v>0.06132871680372082</v>
       </c>
       <c r="F8">
-        <v>0.06132871680372082</v>
+        <v>0.09695064590033134</v>
       </c>
       <c r="G8">
-        <v>0.09695064590033134</v>
+        <v>0.211029403922951</v>
       </c>
       <c r="H8">
         <v>0.211029403922951</v>
@@ -2590,58 +2533,58 @@
         <v>0.211029403922951</v>
       </c>
       <c r="J8">
-        <v>0.211029403922951</v>
+        <v>0.2177355432065068</v>
       </c>
       <c r="K8">
-        <v>0.2177355432065068</v>
+        <v>0.2386916358918674</v>
       </c>
       <c r="L8">
         <v>0.2386916358918674</v>
       </c>
       <c r="M8">
-        <v>0.2386916358918674</v>
+        <v>0.257783092369483</v>
       </c>
       <c r="N8">
-        <v>0.257783092369483</v>
+        <v>0.3406460345387897</v>
       </c>
       <c r="O8">
-        <v>0.3406460345387897</v>
+        <v>0.4784767473639079</v>
       </c>
       <c r="P8">
-        <v>0.4784767473639079</v>
+        <v>0.4795377741097209</v>
       </c>
       <c r="Q8">
-        <v>0.4795377741097209</v>
+        <v>0.4797550512652282</v>
       </c>
       <c r="R8">
-        <v>0.4797550512652282</v>
+        <v>0.512418773312178</v>
       </c>
       <c r="S8">
-        <v>0.512418773312178</v>
+        <v>0.5581711579796514</v>
       </c>
       <c r="T8">
-        <v>0.5581711579796514</v>
+        <v>0.6469066760558194</v>
       </c>
       <c r="U8">
-        <v>0.6469066760558194</v>
+        <v>0.6837922707688464</v>
       </c>
       <c r="V8">
-        <v>0.6837922707688464</v>
+        <v>0.6989998558587942</v>
       </c>
       <c r="W8">
-        <v>0.6989998558587942</v>
+        <v>0.8006219263956411</v>
       </c>
       <c r="X8">
-        <v>0.8006219263956411</v>
+        <v>0.804926306890592</v>
       </c>
       <c r="Y8">
-        <v>0.804926306890592</v>
+        <v>0.8490819333116113</v>
       </c>
       <c r="Z8">
-        <v>0.8490819333116113</v>
+        <v>0.868410512278545</v>
       </c>
       <c r="AA8">
-        <v>0.868410512278545</v>
+        <v>0.9730055174275151</v>
       </c>
       <c r="AB8">
         <v>0.9730055174275151</v>
@@ -2653,27 +2596,24 @@
         <v>0.9730055174275151</v>
       </c>
       <c r="AE8">
-        <v>0.9730055174275151</v>
+        <v>0.977546096583135</v>
       </c>
       <c r="AF8">
-        <v>0.977546096583135</v>
+        <v>0.978237486256553</v>
       </c>
       <c r="AG8">
         <v>0.978237486256553</v>
       </c>
       <c r="AH8">
-        <v>0.978237486256553</v>
+        <v>0.9837128033907386</v>
       </c>
       <c r="AI8">
-        <v>0.9837128033907386</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2682,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1161588072588543</v>
       </c>
       <c r="E9">
         <v>0.1161588072588543</v>
       </c>
       <c r="F9">
-        <v>0.1161588072588543</v>
+        <v>0.2685725592028891</v>
       </c>
       <c r="G9">
-        <v>0.2685725592028891</v>
+        <v>0.2925607713822768</v>
       </c>
       <c r="H9">
         <v>0.2925607713822768</v>
@@ -2703,55 +2643,55 @@
         <v>0.2925607713822768</v>
       </c>
       <c r="K9">
-        <v>0.2925607713822768</v>
+        <v>0.3024832708776184</v>
       </c>
       <c r="L9">
-        <v>0.3024832708776184</v>
+        <v>0.3131949461726862</v>
       </c>
       <c r="M9">
         <v>0.3131949461726862</v>
       </c>
       <c r="N9">
-        <v>0.3131949461726862</v>
+        <v>0.4976455999206888</v>
       </c>
       <c r="O9">
-        <v>0.4976455999206888</v>
+        <v>0.5296657371886686</v>
       </c>
       <c r="P9">
-        <v>0.5296657371886686</v>
+        <v>0.5416291929733867</v>
       </c>
       <c r="Q9">
-        <v>0.5416291929733867</v>
+        <v>0.5507745357881271</v>
       </c>
       <c r="R9">
         <v>0.5507745357881271</v>
       </c>
       <c r="S9">
-        <v>0.5507745357881271</v>
+        <v>0.6895285643216097</v>
       </c>
       <c r="T9">
         <v>0.6895285643216097</v>
       </c>
       <c r="U9">
-        <v>0.6895285643216097</v>
+        <v>0.7742394540623081</v>
       </c>
       <c r="V9">
         <v>0.7742394540623081</v>
       </c>
       <c r="W9">
-        <v>0.7742394540623081</v>
+        <v>0.8692034772938025</v>
       </c>
       <c r="X9">
-        <v>0.8692034772938025</v>
+        <v>0.8797257520028918</v>
       </c>
       <c r="Y9">
-        <v>0.8797257520028918</v>
+        <v>0.8891321666555679</v>
       </c>
       <c r="Z9">
-        <v>0.8891321666555679</v>
+        <v>0.974789676086709</v>
       </c>
       <c r="AA9">
-        <v>0.974789676086709</v>
+        <v>0.9934094262548497</v>
       </c>
       <c r="AB9">
         <v>0.9934094262548497</v>
@@ -2772,18 +2712,15 @@
         <v>0.9934094262548497</v>
       </c>
       <c r="AH9">
-        <v>0.9934094262548497</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2792,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01564894108911755</v>
       </c>
       <c r="E10">
-        <v>0.01564894108911755</v>
+        <v>0.04975906587611097</v>
       </c>
       <c r="F10">
-        <v>0.04975906587611097</v>
+        <v>0.1199540072929021</v>
       </c>
       <c r="G10">
-        <v>0.1199540072929021</v>
+        <v>0.2323012997920403</v>
       </c>
       <c r="H10">
         <v>0.2323012997920403</v>
@@ -2810,61 +2747,61 @@
         <v>0.2323012997920403</v>
       </c>
       <c r="J10">
-        <v>0.2323012997920403</v>
+        <v>0.2445843813789057</v>
       </c>
       <c r="K10">
-        <v>0.2445843813789057</v>
+        <v>0.2667911422874768</v>
       </c>
       <c r="L10">
         <v>0.2667911422874768</v>
       </c>
       <c r="M10">
-        <v>0.2667911422874768</v>
+        <v>0.2966466137914065</v>
       </c>
       <c r="N10">
-        <v>0.2966466137914065</v>
+        <v>0.3852322625880522</v>
       </c>
       <c r="O10">
-        <v>0.3852322625880522</v>
+        <v>0.513834900707595</v>
       </c>
       <c r="P10">
-        <v>0.513834900707595</v>
+        <v>0.5198871473324325</v>
       </c>
       <c r="Q10">
         <v>0.5198871473324325</v>
       </c>
       <c r="R10">
-        <v>0.5198871473324325</v>
+        <v>0.5438729523694757</v>
       </c>
       <c r="S10">
-        <v>0.5438729523694757</v>
+        <v>0.6114810641664356</v>
       </c>
       <c r="T10">
-        <v>0.6114810641664356</v>
+        <v>0.6828697001852504</v>
       </c>
       <c r="U10">
-        <v>0.6828697001852504</v>
+        <v>0.7339340462634508</v>
       </c>
       <c r="V10">
-        <v>0.7339340462634508</v>
+        <v>0.7389011855103681</v>
       </c>
       <c r="W10">
-        <v>0.7389011855103681</v>
+        <v>0.8427280783626728</v>
       </c>
       <c r="X10">
         <v>0.8427280783626728</v>
       </c>
       <c r="Y10">
-        <v>0.8427280783626728</v>
+        <v>0.8921813208148881</v>
       </c>
       <c r="Z10">
-        <v>0.8921813208148881</v>
+        <v>0.9116598227729801</v>
       </c>
       <c r="AA10">
-        <v>0.9116598227729801</v>
+        <v>0.9760155896257146</v>
       </c>
       <c r="AB10">
-        <v>0.9760155896257146</v>
+        <v>0.9764905876614638</v>
       </c>
       <c r="AC10">
         <v>0.9764905876614638</v>
@@ -2873,7 +2810,7 @@
         <v>0.9764905876614638</v>
       </c>
       <c r="AE10">
-        <v>0.9764905876614638</v>
+        <v>0.9844084989556062</v>
       </c>
       <c r="AF10">
         <v>0.9844084989556062</v>
@@ -2882,18 +2819,15 @@
         <v>0.9844084989556062</v>
       </c>
       <c r="AH10">
-        <v>0.9844084989556062</v>
+        <v>0.9905728123441265</v>
       </c>
       <c r="AI10">
-        <v>0.9905728123441265</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2902,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.02691046466322188</v>
       </c>
       <c r="E11">
-        <v>0.02691046466322188</v>
+        <v>0.07026609553392947</v>
       </c>
       <c r="F11">
-        <v>0.07026609553392947</v>
+        <v>0.1196662513014618</v>
       </c>
       <c r="G11">
-        <v>0.1196662513014618</v>
+        <v>0.2299541698378199</v>
       </c>
       <c r="H11">
         <v>0.2299541698378199</v>
@@ -2920,58 +2854,58 @@
         <v>0.2299541698378199</v>
       </c>
       <c r="J11">
-        <v>0.2299541698378199</v>
+        <v>0.2412624167086238</v>
       </c>
       <c r="K11">
-        <v>0.2412624167086238</v>
+        <v>0.2570606870935355</v>
       </c>
       <c r="L11">
         <v>0.2570606870935355</v>
       </c>
       <c r="M11">
-        <v>0.2570606870935355</v>
+        <v>0.2854174231892214</v>
       </c>
       <c r="N11">
-        <v>0.2854174231892214</v>
+        <v>0.3645579369476719</v>
       </c>
       <c r="O11">
-        <v>0.3645579369476719</v>
+        <v>0.5050042656626224</v>
       </c>
       <c r="P11">
-        <v>0.5050042656626224</v>
+        <v>0.5070960003325929</v>
       </c>
       <c r="Q11">
         <v>0.5070960003325929</v>
       </c>
       <c r="R11">
-        <v>0.5070960003325929</v>
+        <v>0.5318693398726428</v>
       </c>
       <c r="S11">
-        <v>0.5318693398726428</v>
+        <v>0.5894655315162048</v>
       </c>
       <c r="T11">
-        <v>0.5894655315162048</v>
+        <v>0.687391471887408</v>
       </c>
       <c r="U11">
-        <v>0.687391471887408</v>
+        <v>0.7160974597414272</v>
       </c>
       <c r="V11">
-        <v>0.7160974597414272</v>
+        <v>0.7233015184089485</v>
       </c>
       <c r="W11">
-        <v>0.7233015184089485</v>
+        <v>0.8281738333517114</v>
       </c>
       <c r="X11">
         <v>0.8281738333517114</v>
       </c>
       <c r="Y11">
-        <v>0.8281738333517114</v>
+        <v>0.8757294501229428</v>
       </c>
       <c r="Z11">
-        <v>0.8757294501229428</v>
+        <v>0.8901213209215149</v>
       </c>
       <c r="AA11">
-        <v>0.8901213209215149</v>
+        <v>0.9840160498917112</v>
       </c>
       <c r="AB11">
         <v>0.9840160498917112</v>
@@ -2983,7 +2917,7 @@
         <v>0.9840160498917112</v>
       </c>
       <c r="AE11">
-        <v>0.9840160498917112</v>
+        <v>0.9841466553257274</v>
       </c>
       <c r="AF11">
         <v>0.9841466553257274</v>
@@ -2992,12 +2926,9 @@
         <v>0.9841466553257274</v>
       </c>
       <c r="AH11">
-        <v>0.9841466553257274</v>
+        <v>0.9904124016339581</v>
       </c>
       <c r="AI11">
-        <v>0.9904124016339581</v>
-      </c>
-      <c r="AJ11">
         <v>1</v>
       </c>
     </row>
@@ -3016,57 +2947,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3084,30 +3015,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3125,36 +3056,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5199698855198915</v>
+        <v>0.5199698855198917</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3166,30 +3097,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3207,30 +3138,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3248,30 +3179,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -3289,30 +3220,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3330,30 +3261,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3371,30 +3302,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -3412,30 +3343,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3453,16 +3384,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3480,57 +3411,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3548,30 +3479,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3589,36 +3520,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7851086905990434</v>
+        <v>0.7851086905990435</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -3630,30 +3561,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3671,30 +3602,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3712,30 +3643,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -3753,30 +3684,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3794,30 +3725,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3835,30 +3766,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -3876,30 +3807,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3917,16 +3848,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3944,57 +3875,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4012,30 +3943,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4053,36 +3984,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8588454582587743</v>
+        <v>0.8588454582587746</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -4094,30 +4025,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4135,30 +4066,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4176,30 +4107,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -4217,30 +4148,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4258,30 +4189,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4299,30 +4230,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -4340,30 +4271,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4381,16 +4312,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4408,57 +4339,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4476,30 +4407,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4517,36 +4448,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9824667724000681</v>
+        <v>0.9824667724000683</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -4558,30 +4489,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4599,30 +4530,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4640,30 +4571,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0.03380887104435321</v>
@@ -4681,30 +4612,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4722,30 +4653,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4763,30 +4694,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0.01564894108911755</v>
@@ -4804,30 +4735,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4845,16 +4776,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/26_11R22.xlsx
@@ -156,40 +156,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -683,85 +683,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.122726718628815</v>
+        <v>0.1591254772168025</v>
       </c>
       <c r="E2">
-        <v>0.01311574586843905</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1343467079923847</v>
+        <v>0.1789467356558308</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.003308483122319739</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002776319182406289</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03905258620256639</v>
+        <v>0.01639500203393621</v>
       </c>
       <c r="M2">
-        <v>0.0239509219783778</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.130497217893794</v>
+        <v>0.1723803150064397</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.000850249077856523</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01971850693577964</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04920263702468185</v>
+        <v>0.03370885441534813</v>
       </c>
       <c r="S2">
-        <v>0.1287969092317171</v>
+        <v>0.1694799459645537</v>
       </c>
       <c r="T2">
-        <v>0.01866140470656135</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.04102058340769893</v>
+        <v>0.01975199144156111</v>
       </c>
       <c r="V2">
-        <v>0.06526671889105058</v>
+        <v>0.06111080017420264</v>
       </c>
       <c r="W2">
-        <v>0.02650726425270263</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.05462341053301895</v>
+        <v>0.04295555415717819</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.1151172500602111</v>
+        <v>0.146145323934147</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.004658711781692435</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0008858561456110773</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001546625900381074</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003369171181933632</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1288952278538678</v>
+        <v>0.1450216753563086</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1369421824239991</v>
+        <v>0.156473672902971</v>
       </c>
       <c r="G3">
-        <v>0.01250606840903117</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005613768536574537</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -814,55 +814,55 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03713956962796854</v>
+        <v>0.01443990510552391</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1555739733708611</v>
+        <v>0.1829894463367345</v>
       </c>
       <c r="O3">
-        <v>0.008391783264083082</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01023796718370626</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1847260263322362</v>
+        <v>0.2244770968614462</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07800450979854914</v>
+        <v>0.07259671343585314</v>
       </c>
       <c r="V3">
-        <v>0.007260945111613887</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.09474830441764875</v>
+        <v>0.09642559096071014</v>
       </c>
       <c r="X3">
-        <v>0.01959815287625102</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006897422420618662</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.1025832713913193</v>
+        <v>0.1075758990404525</v>
       </c>
       <c r="AA3">
-        <v>0.00897556509315715</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001905261888514233</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06638072120141608</v>
+        <v>0.0609023989988025</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1659617965865109</v>
+        <v>0.2163362925399895</v>
       </c>
       <c r="G4">
-        <v>0.02784056975527577</v>
+        <v>0.0007459307765559382</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -918,58 +918,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.006140798853084331</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03561653904632267</v>
+        <v>0.01288326890320396</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1839107107681206</v>
+        <v>0.2443523548821099</v>
       </c>
       <c r="O4">
-        <v>0.03411874930916124</v>
+        <v>0.01054540209816362</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02276857362175983</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1494456840643519</v>
+        <v>0.1905566585527492</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0929245473930401</v>
+        <v>0.1023340690072809</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.07373676765973097</v>
+        <v>0.07238428888263962</v>
       </c>
       <c r="X4">
-        <v>0.02346065179655939</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01580484040398044</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.08435582194075385</v>
+        <v>0.08895933535850495</v>
       </c>
       <c r="AA4">
-        <v>0.01334448359821085</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.004188744001720984</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03201702865315273</v>
+        <v>0.006090512142646751</v>
       </c>
       <c r="E5">
-        <v>0.02815101759610543</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1326906717700145</v>
+        <v>0.1908701387308031</v>
       </c>
       <c r="G5">
-        <v>0.03654932052391887</v>
+        <v>0.01440922569606972</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1025,58 +1025,58 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0246853365354006</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.004843491893755767</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03512450321773592</v>
+        <v>0.01179407041170977</v>
       </c>
       <c r="N5">
-        <v>0.126993633336298</v>
+        <v>0.1804136120585882</v>
       </c>
       <c r="O5">
-        <v>0.08369352248538275</v>
+        <v>0.1009392028036219</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.004659249686050805</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004582786726028616</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.127851916323611</v>
+        <v>0.1819889321224361</v>
       </c>
       <c r="T5">
-        <v>0.03163995569233369</v>
+        <v>0.005398420362320964</v>
       </c>
       <c r="U5">
-        <v>0.07441935350318503</v>
+        <v>0.08391709623838391</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.09327579869280914</v>
+        <v>0.1185268192308679</v>
       </c>
       <c r="X5">
-        <v>0.006564301740450681</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0288531226965957</v>
+        <v>0.0002833778906954356</v>
       </c>
       <c r="Z5">
-        <v>0.07453655489854065</v>
+        <v>0.08413221143039383</v>
       </c>
       <c r="AA5">
-        <v>0.04026896536425374</v>
+        <v>0.02123638088146225</v>
       </c>
       <c r="AB5">
-        <v>0.006027618280453911</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001864448886751455</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0007074014971711427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08830773019725748</v>
+        <v>0.09821745032625905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1420737044495178</v>
+        <v>0.1875660670483981</v>
       </c>
       <c r="G6">
-        <v>0.03176087513966892</v>
+        <v>0.004247549294094148</v>
       </c>
       <c r="H6">
-        <v>0.006141876770456872</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1135,58 +1135,58 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03207484092240615</v>
+        <v>0.004769299504627639</v>
       </c>
       <c r="M6">
-        <v>0.0008798028735971491</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.120012796754174</v>
+        <v>0.1509051190487271</v>
       </c>
       <c r="O6">
-        <v>0.04283352257532872</v>
+        <v>0.02264814085012926</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.005006357111385811</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1493033141465026</v>
+        <v>0.1995802755668905</v>
       </c>
       <c r="T6">
-        <v>0.007121771765571628</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1045578048342036</v>
+        <v>0.1252219212883306</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1087436955493991</v>
+        <v>0.1321780594473455</v>
       </c>
       <c r="X6">
-        <v>0.01200041139149277</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.03642898630877658</v>
+        <v>0.01200504427982672</v>
       </c>
       <c r="Z6">
-        <v>0.06678652381999066</v>
+        <v>0.06245338119624363</v>
       </c>
       <c r="AA6">
-        <v>0.02932987102110975</v>
+        <v>0.0002076921491275398</v>
       </c>
       <c r="AB6">
-        <v>0.006880268890917715</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006335719785251</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001362825945597526</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.002000481957405618</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001095947411494071</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000187413729532568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03380887104435321</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="E7">
-        <v>0.009055518484911091</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1257127328210929</v>
+        <v>0.1667187682887748</v>
       </c>
       <c r="G7">
-        <v>0.06026018671987595</v>
+        <v>0.05747537092003434</v>
       </c>
       <c r="H7">
-        <v>0.002282424485018034</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1239,55 +1239,55 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0318964545477093</v>
+        <v>0.01013495944462925</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.02334616077725446</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1564203187887386</v>
+        <v>0.2179711826854688</v>
       </c>
       <c r="O7">
-        <v>0.1197519045104582</v>
+        <v>0.1567698637071486</v>
       </c>
       <c r="P7">
-        <v>0.008391168354291618</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0220665614380614</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.06775445628031955</v>
+        <v>0.06998366152669684</v>
       </c>
       <c r="T7">
-        <v>0.04497055975567577</v>
+        <v>0.03195625984547103</v>
       </c>
       <c r="U7">
-        <v>0.06274282694233324</v>
+        <v>0.06161901495683181</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.1032890567703757</v>
+        <v>0.1292925916280801</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.03623233249218322</v>
+        <v>0.01737174495482218</v>
       </c>
       <c r="Z7">
-        <v>0.03359799105620706</v>
+        <v>0.01297490441251162</v>
       </c>
       <c r="AA7">
-        <v>0.05842047473114074</v>
+        <v>0.05440480453567026</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01318869278760472</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0481400240161161</v>
+        <v>0.03557351274551014</v>
       </c>
       <c r="F8">
-        <v>0.03562192909661051</v>
+        <v>0.01127544857075728</v>
       </c>
       <c r="G8">
-        <v>0.1140787580226197</v>
+        <v>0.1635629233382893</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1343,58 +1343,58 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00670613928355581</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02095609268536057</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.01909145647761558</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.08286294216930669</v>
+        <v>0.1029719227309042</v>
       </c>
       <c r="O8">
-        <v>0.1378307128251182</v>
+        <v>0.2096663061435806</v>
       </c>
       <c r="P8">
-        <v>0.001061026745813034</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0002172771555072645</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.03266372204694978</v>
+        <v>0.005533464251493003</v>
       </c>
       <c r="S8">
-        <v>0.0457523846674734</v>
+        <v>0.03093902047711497</v>
       </c>
       <c r="T8">
-        <v>0.08873551807616797</v>
+        <v>0.1143707998902139</v>
       </c>
       <c r="U8">
-        <v>0.03688559471302698</v>
+        <v>0.01372826814438682</v>
       </c>
       <c r="V8">
-        <v>0.01520758508994774</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.1016220705368469</v>
+        <v>0.1393840531603259</v>
       </c>
       <c r="X8">
-        <v>0.004304380494950838</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.04415562642101933</v>
+        <v>0.02783965634915555</v>
       </c>
       <c r="Z8">
-        <v>0.01932857896693373</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.10459500514897</v>
+        <v>0.1451546241982682</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.004540579155619903</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.0006913896734181302</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.005475317134185583</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.01628719660926162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1161588072588543</v>
+        <v>0.1324816203373267</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1524137519440348</v>
+        <v>0.1865406721478028</v>
       </c>
       <c r="G9">
-        <v>0.02398821217938771</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.009922499495341627</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01071167529506776</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1844506537480026</v>
+        <v>0.2343102812178656</v>
       </c>
       <c r="O9">
-        <v>0.03202013726797979</v>
+        <v>0.007024065242491978</v>
       </c>
       <c r="P9">
-        <v>0.01196345578471817</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.009145342814740345</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1387540285334826</v>
+        <v>0.1661729208802177</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.08471088974069836</v>
+        <v>0.08559023442547704</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0949640232314944</v>
+        <v>0.1008784848810138</v>
       </c>
       <c r="X9">
-        <v>0.01052227470908928</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.009406414652676092</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.085657509431141</v>
+        <v>0.08700172086780426</v>
       </c>
       <c r="AA9">
-        <v>0.01861975016814079</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.006590573745150507</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01564894108911755</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03411012478699343</v>
+        <v>0.009370022996814604</v>
       </c>
       <c r="F10">
-        <v>0.07019494141679113</v>
+        <v>0.07868271998922932</v>
       </c>
       <c r="G10">
-        <v>0.1123472924991382</v>
+        <v>0.1596501021450794</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1557,61 +1557,61 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01228308158686544</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02220676090857105</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02985547150392967</v>
+        <v>0.001197569279168159</v>
       </c>
       <c r="N10">
-        <v>0.0885856487966457</v>
+        <v>0.1140080908002704</v>
       </c>
       <c r="O10">
-        <v>0.1286026381195428</v>
+        <v>0.1908738120243111</v>
       </c>
       <c r="P10">
-        <v>0.006052246624837546</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.02398580503704324</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.06760811179695983</v>
+        <v>0.07371386731499099</v>
       </c>
       <c r="T10">
-        <v>0.07138863601881484</v>
+        <v>0.08097560103946108</v>
       </c>
       <c r="U10">
-        <v>0.0510643460782004</v>
+        <v>0.04193615226818742</v>
       </c>
       <c r="V10">
-        <v>0.00496713924691731</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.1038268928523047</v>
+        <v>0.1432838868187261</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.04945324245221529</v>
+        <v>0.03884150061464199</v>
       </c>
       <c r="Z10">
-        <v>0.01947850195809203</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.06435576685273446</v>
+        <v>0.06746667470911939</v>
       </c>
       <c r="AB10">
-        <v>0.0004749980357492586</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.007917911294142398</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.006164313388520272</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.009427187655873498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02691046466322188</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0433556308707076</v>
+        <v>0.02684999781535589</v>
       </c>
       <c r="F11">
-        <v>0.04940015576753234</v>
+        <v>0.03816070345056242</v>
       </c>
       <c r="G11">
-        <v>0.1102879185363581</v>
+        <v>0.1520958055834444</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1664,58 +1664,58 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01130824687080398</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0157982703849117</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02835673609568586</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.07914051375845048</v>
+        <v>0.0938117993535082</v>
       </c>
       <c r="O11">
-        <v>0.1404463287149506</v>
+        <v>0.2085291739256059</v>
       </c>
       <c r="P11">
-        <v>0.002091734669970543</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02477333954004986</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.05759619164356199</v>
+        <v>0.05349738429012044</v>
       </c>
       <c r="T11">
-        <v>0.09792594037120315</v>
+        <v>0.1289636821359311</v>
       </c>
       <c r="U11">
-        <v>0.02870598785401918</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.007204058667521312</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.1048723149427628</v>
+        <v>0.1419619573274301</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.04755561677123142</v>
+        <v>0.03470914390271796</v>
       </c>
       <c r="Z11">
-        <v>0.01439187079857205</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.09389472897019634</v>
+        <v>0.1214203522153234</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.0001306054340161872</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.006265746308230598</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.009587598366042302</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1873,94 +1873,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.122726718628815</v>
+        <v>0.1591254772168025</v>
       </c>
       <c r="E2">
-        <v>0.1358424644972541</v>
+        <v>0.1591254772168025</v>
       </c>
       <c r="F2">
-        <v>0.2701891724896388</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="G2">
-        <v>0.2701891724896388</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="H2">
-        <v>0.2734976556119585</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="I2">
-        <v>0.2734976556119585</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="J2">
-        <v>0.2762739747943648</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="K2">
-        <v>0.2762739747943648</v>
+        <v>0.3380722128726332</v>
       </c>
       <c r="L2">
-        <v>0.3153265609969312</v>
+        <v>0.3544672149065694</v>
       </c>
       <c r="M2">
-        <v>0.339277482975309</v>
+        <v>0.3544672149065694</v>
       </c>
       <c r="N2">
-        <v>0.469774700869103</v>
+        <v>0.5268475299130091</v>
       </c>
       <c r="O2">
-        <v>0.469774700869103</v>
+        <v>0.5268475299130091</v>
       </c>
       <c r="P2">
-        <v>0.4706249499469595</v>
+        <v>0.5268475299130091</v>
       </c>
       <c r="Q2">
-        <v>0.4903434568827392</v>
+        <v>0.5268475299130091</v>
       </c>
       <c r="R2">
-        <v>0.539546093907421</v>
+        <v>0.5605563843283572</v>
       </c>
       <c r="S2">
-        <v>0.6683430031391382</v>
+        <v>0.7300363302929109</v>
       </c>
       <c r="T2">
-        <v>0.6870044078456995</v>
+        <v>0.7300363302929109</v>
       </c>
       <c r="U2">
-        <v>0.7280249912533985</v>
+        <v>0.7497883217344721</v>
       </c>
       <c r="V2">
-        <v>0.7932917101444491</v>
+        <v>0.8108991219086747</v>
       </c>
       <c r="W2">
-        <v>0.8197989743971518</v>
+        <v>0.8108991219086747</v>
       </c>
       <c r="X2">
-        <v>0.8744223849301708</v>
+        <v>0.853854676065853</v>
       </c>
       <c r="Y2">
-        <v>0.8744223849301708</v>
+        <v>0.853854676065853</v>
       </c>
       <c r="Z2">
-        <v>0.9895396349903819</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9895396349903819</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9941983467720743</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9941983467720743</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9950842029176854</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9950842029176854</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9950842029176854</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9966308288180665</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1980,76 +1980,76 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1288952278538678</v>
+        <v>0.1450216753563086</v>
       </c>
       <c r="E3">
-        <v>0.1288952278538678</v>
+        <v>0.1450216753563086</v>
       </c>
       <c r="F3">
-        <v>0.2658374102778669</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="G3">
-        <v>0.2783434786868981</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="H3">
-        <v>0.2839572472234726</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="I3">
-        <v>0.2839572472234726</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="J3">
-        <v>0.2839572472234726</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="K3">
-        <v>0.2839572472234726</v>
+        <v>0.3014953482592796</v>
       </c>
       <c r="L3">
-        <v>0.3210968168514411</v>
+        <v>0.3159352533648035</v>
       </c>
       <c r="M3">
-        <v>0.3210968168514411</v>
+        <v>0.3159352533648035</v>
       </c>
       <c r="N3">
-        <v>0.4766707902223023</v>
+        <v>0.498924699701538</v>
       </c>
       <c r="O3">
-        <v>0.4850625734863854</v>
+        <v>0.498924699701538</v>
       </c>
       <c r="P3">
-        <v>0.4850625734863854</v>
+        <v>0.498924699701538</v>
       </c>
       <c r="Q3">
-        <v>0.4953005406700917</v>
+        <v>0.498924699701538</v>
       </c>
       <c r="R3">
-        <v>0.4953005406700917</v>
+        <v>0.498924699701538</v>
       </c>
       <c r="S3">
-        <v>0.6800265670023279</v>
+        <v>0.7234017965629842</v>
       </c>
       <c r="T3">
-        <v>0.6800265670023279</v>
+        <v>0.7234017965629842</v>
       </c>
       <c r="U3">
-        <v>0.758031076800877</v>
+        <v>0.7959985099988374</v>
       </c>
       <c r="V3">
-        <v>0.7652920219124909</v>
+        <v>0.7959985099988374</v>
       </c>
       <c r="W3">
-        <v>0.8600403263301397</v>
+        <v>0.8924241009595475</v>
       </c>
       <c r="X3">
-        <v>0.8796384792063907</v>
+        <v>0.8924241009595475</v>
       </c>
       <c r="Y3">
-        <v>0.8865359016270093</v>
+        <v>0.8924241009595475</v>
       </c>
       <c r="Z3">
-        <v>0.9891191730183286</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9980947381114857</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -2087,76 +2087,76 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06638072120141608</v>
+        <v>0.0609023989988025</v>
       </c>
       <c r="E4">
-        <v>0.06638072120141608</v>
+        <v>0.0609023989988025</v>
       </c>
       <c r="F4">
-        <v>0.232342517787927</v>
+        <v>0.277238691538792</v>
       </c>
       <c r="G4">
-        <v>0.2601830875432028</v>
+        <v>0.2779846223153479</v>
       </c>
       <c r="H4">
-        <v>0.2601830875432028</v>
+        <v>0.2779846223153479</v>
       </c>
       <c r="I4">
-        <v>0.2601830875432028</v>
+        <v>0.2779846223153479</v>
       </c>
       <c r="J4">
-        <v>0.2601830875432028</v>
+        <v>0.2779846223153479</v>
       </c>
       <c r="K4">
-        <v>0.2663238863962871</v>
+        <v>0.2779846223153479</v>
       </c>
       <c r="L4">
-        <v>0.3019404254426098</v>
+        <v>0.2908678912185519</v>
       </c>
       <c r="M4">
-        <v>0.3019404254426098</v>
+        <v>0.2908678912185519</v>
       </c>
       <c r="N4">
-        <v>0.4858511362107304</v>
+        <v>0.5352202461006618</v>
       </c>
       <c r="O4">
-        <v>0.5199698855198917</v>
+        <v>0.5457656481988253</v>
       </c>
       <c r="P4">
-        <v>0.5199698855198917</v>
+        <v>0.5457656481988253</v>
       </c>
       <c r="Q4">
-        <v>0.5427384591416515</v>
+        <v>0.5457656481988253</v>
       </c>
       <c r="R4">
-        <v>0.5427384591416515</v>
+        <v>0.5457656481988253</v>
       </c>
       <c r="S4">
-        <v>0.6921841432060034</v>
+        <v>0.7363223067515745</v>
       </c>
       <c r="T4">
-        <v>0.6921841432060034</v>
+        <v>0.7363223067515745</v>
       </c>
       <c r="U4">
-        <v>0.7851086905990435</v>
+        <v>0.8386563757588554</v>
       </c>
       <c r="V4">
-        <v>0.7851086905990435</v>
+        <v>0.8386563757588554</v>
       </c>
       <c r="W4">
-        <v>0.8588454582587746</v>
+        <v>0.911040664641495</v>
       </c>
       <c r="X4">
-        <v>0.882306110055334</v>
+        <v>0.911040664641495</v>
       </c>
       <c r="Y4">
-        <v>0.8981109504593144</v>
+        <v>0.911040664641495</v>
       </c>
       <c r="Z4">
-        <v>0.9824667724000683</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9958112559982791</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -2194,97 +2194,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03201702865315273</v>
+        <v>0.006090512142646751</v>
       </c>
       <c r="E5">
-        <v>0.06016804624925816</v>
+        <v>0.006090512142646751</v>
       </c>
       <c r="F5">
-        <v>0.1928587180192727</v>
+        <v>0.1969606508734499</v>
       </c>
       <c r="G5">
-        <v>0.2294080385431916</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="H5">
-        <v>0.2294080385431916</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="I5">
-        <v>0.2294080385431916</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="J5">
-        <v>0.2294080385431916</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="K5">
-        <v>0.2540933750785921</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="L5">
-        <v>0.2589368669723479</v>
+        <v>0.2113698765695196</v>
       </c>
       <c r="M5">
-        <v>0.2940613701900838</v>
+        <v>0.2231639469812293</v>
       </c>
       <c r="N5">
-        <v>0.4210550035263819</v>
+        <v>0.4035775590398176</v>
       </c>
       <c r="O5">
-        <v>0.5047485260117646</v>
+        <v>0.5045167618434395</v>
       </c>
       <c r="P5">
-        <v>0.5047485260117646</v>
+        <v>0.5045167618434395</v>
       </c>
       <c r="Q5">
-        <v>0.5094077756978154</v>
+        <v>0.5045167618434395</v>
       </c>
       <c r="R5">
-        <v>0.513990562423844</v>
+        <v>0.5045167618434395</v>
       </c>
       <c r="S5">
-        <v>0.641842478747455</v>
+        <v>0.6865056939658757</v>
       </c>
       <c r="T5">
-        <v>0.6734824344397887</v>
+        <v>0.6919041143281967</v>
       </c>
       <c r="U5">
-        <v>0.7479017879429738</v>
+        <v>0.7758212105665806</v>
       </c>
       <c r="V5">
-        <v>0.7479017879429738</v>
+        <v>0.7758212105665806</v>
       </c>
       <c r="W5">
-        <v>0.8411775866357829</v>
+        <v>0.8943480297974484</v>
       </c>
       <c r="X5">
-        <v>0.8477418883762335</v>
+        <v>0.8943480297974484</v>
       </c>
       <c r="Y5">
-        <v>0.8765950110728292</v>
+        <v>0.8946314076881439</v>
       </c>
       <c r="Z5">
-        <v>0.9511315659713698</v>
+        <v>0.9787636191185377</v>
       </c>
       <c r="AA5">
-        <v>0.9914005313356236</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9974281496160775</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9974281496160775</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9974281496160775</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9992925985028289</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9992925985028289</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9992925985028289</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9992925985028289</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08830773019725748</v>
+        <v>0.09821745032625905</v>
       </c>
       <c r="E6">
-        <v>0.08830773019725748</v>
+        <v>0.09821745032625905</v>
       </c>
       <c r="F6">
-        <v>0.2303814346467753</v>
+        <v>0.2857835173746572</v>
       </c>
       <c r="G6">
-        <v>0.2621423097864442</v>
+        <v>0.2900310666687513</v>
       </c>
       <c r="H6">
-        <v>0.2682841865569011</v>
+        <v>0.2900310666687513</v>
       </c>
       <c r="I6">
-        <v>0.2682841865569011</v>
+        <v>0.2900310666687513</v>
       </c>
       <c r="J6">
-        <v>0.2682841865569011</v>
+        <v>0.2900310666687513</v>
       </c>
       <c r="K6">
-        <v>0.2682841865569011</v>
+        <v>0.2900310666687513</v>
       </c>
       <c r="L6">
-        <v>0.3003590274793072</v>
+        <v>0.294800366173379</v>
       </c>
       <c r="M6">
-        <v>0.3012388303529043</v>
+        <v>0.294800366173379</v>
       </c>
       <c r="N6">
-        <v>0.4212516271070783</v>
+        <v>0.4457054852221061</v>
       </c>
       <c r="O6">
-        <v>0.464085149682407</v>
+        <v>0.4683536260722354</v>
       </c>
       <c r="P6">
-        <v>0.464085149682407</v>
+        <v>0.4683536260722354</v>
       </c>
       <c r="Q6">
-        <v>0.4690915067937929</v>
+        <v>0.4683536260722354</v>
       </c>
       <c r="R6">
-        <v>0.4690915067937929</v>
+        <v>0.4683536260722354</v>
       </c>
       <c r="S6">
-        <v>0.6183948209402954</v>
+        <v>0.6679339016391259</v>
       </c>
       <c r="T6">
-        <v>0.625516592705867</v>
+        <v>0.6679339016391259</v>
       </c>
       <c r="U6">
-        <v>0.7300743975400705</v>
+        <v>0.7931558229274565</v>
       </c>
       <c r="V6">
-        <v>0.7300743975400705</v>
+        <v>0.7931558229274565</v>
       </c>
       <c r="W6">
-        <v>0.8388180930894696</v>
+        <v>0.925333882374802</v>
       </c>
       <c r="X6">
-        <v>0.8508185044809624</v>
+        <v>0.925333882374802</v>
       </c>
       <c r="Y6">
-        <v>0.887247490789739</v>
+        <v>0.9373389266546287</v>
       </c>
       <c r="Z6">
-        <v>0.9540340146097296</v>
+        <v>0.9997923078508724</v>
       </c>
       <c r="AA6">
-        <v>0.9833638856308393</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.9902441545217571</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9965798743070081</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.9965798743070081</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.9965798743070081</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9967161569015679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9987166388589735</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9998125862704677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,73 +2408,73 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03380887104435321</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="E7">
-        <v>0.04286438952926429</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="F7">
-        <v>0.1685771223503572</v>
+        <v>0.1800456413826352</v>
       </c>
       <c r="G7">
-        <v>0.2288373090702331</v>
+        <v>0.2375210123026695</v>
       </c>
       <c r="H7">
-        <v>0.2311197335552511</v>
+        <v>0.2375210123026695</v>
       </c>
       <c r="I7">
-        <v>0.2311197335552511</v>
+        <v>0.2375210123026695</v>
       </c>
       <c r="J7">
-        <v>0.2311197335552511</v>
+        <v>0.2375210123026695</v>
       </c>
       <c r="K7">
-        <v>0.2630161881029605</v>
+        <v>0.2476559717472988</v>
       </c>
       <c r="L7">
-        <v>0.2630161881029605</v>
+        <v>0.2476559717472988</v>
       </c>
       <c r="M7">
-        <v>0.2863623488802149</v>
+        <v>0.2476559717472988</v>
       </c>
       <c r="N7">
-        <v>0.4427826676689535</v>
+        <v>0.4656271544327676</v>
       </c>
       <c r="O7">
-        <v>0.5625345721794117</v>
+        <v>0.6223970181399161</v>
       </c>
       <c r="P7">
-        <v>0.5709257405337034</v>
+        <v>0.6223970181399161</v>
       </c>
       <c r="Q7">
-        <v>0.5709257405337034</v>
+        <v>0.6223970181399161</v>
       </c>
       <c r="R7">
-        <v>0.5929923019717648</v>
+        <v>0.6223970181399161</v>
       </c>
       <c r="S7">
-        <v>0.6607467582520843</v>
+        <v>0.692380679666613</v>
       </c>
       <c r="T7">
-        <v>0.7057173180077601</v>
+        <v>0.724336939512084</v>
       </c>
       <c r="U7">
-        <v>0.7684601449500933</v>
+        <v>0.7859559544689159</v>
       </c>
       <c r="V7">
-        <v>0.7684601449500933</v>
+        <v>0.7859559544689159</v>
       </c>
       <c r="W7">
-        <v>0.871749201720469</v>
+        <v>0.915248546096996</v>
       </c>
       <c r="X7">
-        <v>0.871749201720469</v>
+        <v>0.915248546096996</v>
       </c>
       <c r="Y7">
-        <v>0.9079815342126523</v>
+        <v>0.9326202910518182</v>
       </c>
       <c r="Z7">
-        <v>0.9415795252688594</v>
+        <v>0.9455951954643298</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01318869278760472</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06132871680372082</v>
+        <v>0.03557351274551014</v>
       </c>
       <c r="F8">
-        <v>0.09695064590033134</v>
+        <v>0.04684896131626742</v>
       </c>
       <c r="G8">
-        <v>0.211029403922951</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="H8">
-        <v>0.211029403922951</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="I8">
-        <v>0.211029403922951</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="J8">
-        <v>0.2177355432065068</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="K8">
-        <v>0.2386916358918674</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="L8">
-        <v>0.2386916358918674</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="M8">
-        <v>0.257783092369483</v>
+        <v>0.2104118846545567</v>
       </c>
       <c r="N8">
-        <v>0.3406460345387897</v>
+        <v>0.313383807385461</v>
       </c>
       <c r="O8">
-        <v>0.4784767473639079</v>
+        <v>0.5230501135290415</v>
       </c>
       <c r="P8">
-        <v>0.4795377741097209</v>
+        <v>0.5230501135290415</v>
       </c>
       <c r="Q8">
-        <v>0.4797550512652282</v>
+        <v>0.5230501135290415</v>
       </c>
       <c r="R8">
-        <v>0.512418773312178</v>
+        <v>0.5285835777805346</v>
       </c>
       <c r="S8">
-        <v>0.5581711579796514</v>
+        <v>0.5595225982576495</v>
       </c>
       <c r="T8">
-        <v>0.6469066760558194</v>
+        <v>0.6738933981478634</v>
       </c>
       <c r="U8">
-        <v>0.6837922707688464</v>
+        <v>0.6876216662922503</v>
       </c>
       <c r="V8">
-        <v>0.6989998558587942</v>
+        <v>0.6876216662922503</v>
       </c>
       <c r="W8">
-        <v>0.8006219263956411</v>
+        <v>0.8270057194525762</v>
       </c>
       <c r="X8">
-        <v>0.804926306890592</v>
+        <v>0.8270057194525762</v>
       </c>
       <c r="Y8">
-        <v>0.8490819333116113</v>
+        <v>0.8548453758017317</v>
       </c>
       <c r="Z8">
-        <v>0.868410512278545</v>
+        <v>0.8548453758017317</v>
       </c>
       <c r="AA8">
-        <v>0.9730055174275151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.9730055174275151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.9730055174275151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.9730055174275151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>0.977546096583135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.978237486256553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.978237486256553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9837128033907386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,100 +2622,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1161588072588543</v>
+        <v>0.1324816203373267</v>
       </c>
       <c r="E9">
-        <v>0.1161588072588543</v>
+        <v>0.1324816203373267</v>
       </c>
       <c r="F9">
-        <v>0.2685725592028891</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="G9">
-        <v>0.2925607713822768</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="H9">
-        <v>0.2925607713822768</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="I9">
-        <v>0.2925607713822768</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="J9">
-        <v>0.2925607713822768</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="K9">
-        <v>0.3024832708776184</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="L9">
-        <v>0.3131949461726862</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="M9">
-        <v>0.3131949461726862</v>
+        <v>0.3190222924851295</v>
       </c>
       <c r="N9">
-        <v>0.4976455999206888</v>
+        <v>0.553332573702995</v>
       </c>
       <c r="O9">
-        <v>0.5296657371886686</v>
+        <v>0.560356638945487</v>
       </c>
       <c r="P9">
-        <v>0.5416291929733867</v>
+        <v>0.560356638945487</v>
       </c>
       <c r="Q9">
-        <v>0.5507745357881271</v>
+        <v>0.560356638945487</v>
       </c>
       <c r="R9">
-        <v>0.5507745357881271</v>
+        <v>0.560356638945487</v>
       </c>
       <c r="S9">
-        <v>0.6895285643216097</v>
+        <v>0.7265295598257048</v>
       </c>
       <c r="T9">
-        <v>0.6895285643216097</v>
+        <v>0.7265295598257048</v>
       </c>
       <c r="U9">
-        <v>0.7742394540623081</v>
+        <v>0.8121197942511819</v>
       </c>
       <c r="V9">
-        <v>0.7742394540623081</v>
+        <v>0.8121197942511819</v>
       </c>
       <c r="W9">
-        <v>0.8692034772938025</v>
+        <v>0.9129982791321956</v>
       </c>
       <c r="X9">
-        <v>0.8797257520028918</v>
+        <v>0.9129982791321956</v>
       </c>
       <c r="Y9">
-        <v>0.8891321666555679</v>
+        <v>0.9129982791321956</v>
       </c>
       <c r="Z9">
-        <v>0.974789676086709</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.9934094262548497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2729,97 +2729,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01564894108911755</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04975906587611097</v>
+        <v>0.009370022996814604</v>
       </c>
       <c r="F10">
-        <v>0.1199540072929021</v>
+        <v>0.08805274298604393</v>
       </c>
       <c r="G10">
-        <v>0.2323012997920403</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="H10">
-        <v>0.2323012997920403</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="I10">
-        <v>0.2323012997920403</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="J10">
-        <v>0.2445843813789057</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="K10">
-        <v>0.2667911422874768</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="L10">
-        <v>0.2667911422874768</v>
+        <v>0.2477028451311234</v>
       </c>
       <c r="M10">
-        <v>0.2966466137914065</v>
+        <v>0.2489004144102915</v>
       </c>
       <c r="N10">
-        <v>0.3852322625880522</v>
+        <v>0.3629085052105619</v>
       </c>
       <c r="O10">
-        <v>0.513834900707595</v>
+        <v>0.553782317234873</v>
       </c>
       <c r="P10">
-        <v>0.5198871473324325</v>
+        <v>0.553782317234873</v>
       </c>
       <c r="Q10">
-        <v>0.5198871473324325</v>
+        <v>0.553782317234873</v>
       </c>
       <c r="R10">
-        <v>0.5438729523694757</v>
+        <v>0.553782317234873</v>
       </c>
       <c r="S10">
-        <v>0.6114810641664356</v>
+        <v>0.627496184549864</v>
       </c>
       <c r="T10">
-        <v>0.6828697001852504</v>
+        <v>0.7084717855893251</v>
       </c>
       <c r="U10">
-        <v>0.7339340462634508</v>
+        <v>0.7504079378575126</v>
       </c>
       <c r="V10">
-        <v>0.7389011855103681</v>
+        <v>0.7504079378575126</v>
       </c>
       <c r="W10">
-        <v>0.8427280783626728</v>
+        <v>0.8936918246762386</v>
       </c>
       <c r="X10">
-        <v>0.8427280783626728</v>
+        <v>0.8936918246762386</v>
       </c>
       <c r="Y10">
-        <v>0.8921813208148881</v>
+        <v>0.9325333252908806</v>
       </c>
       <c r="Z10">
-        <v>0.9116598227729801</v>
+        <v>0.9325333252908806</v>
       </c>
       <c r="AA10">
-        <v>0.9760155896257146</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9764905876614638</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9764905876614638</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9764905876614638</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9844084989556062</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9844084989556062</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9844084989556062</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9905728123441265</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02691046466322188</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07026609553392947</v>
+        <v>0.02684999781535589</v>
       </c>
       <c r="F11">
-        <v>0.1196662513014618</v>
+        <v>0.06501070126591832</v>
       </c>
       <c r="G11">
-        <v>0.2299541698378199</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="H11">
-        <v>0.2299541698378199</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="I11">
-        <v>0.2299541698378199</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="J11">
-        <v>0.2412624167086238</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="K11">
-        <v>0.2570606870935355</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="L11">
-        <v>0.2570606870935355</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="M11">
-        <v>0.2854174231892214</v>
+        <v>0.2171065068493628</v>
       </c>
       <c r="N11">
-        <v>0.3645579369476719</v>
+        <v>0.310918306202871</v>
       </c>
       <c r="O11">
-        <v>0.5050042656626224</v>
+        <v>0.5194474801284769</v>
       </c>
       <c r="P11">
-        <v>0.5070960003325929</v>
+        <v>0.5194474801284769</v>
       </c>
       <c r="Q11">
-        <v>0.5070960003325929</v>
+        <v>0.5194474801284769</v>
       </c>
       <c r="R11">
-        <v>0.5318693398726428</v>
+        <v>0.5194474801284769</v>
       </c>
       <c r="S11">
-        <v>0.5894655315162048</v>
+        <v>0.5729448644185973</v>
       </c>
       <c r="T11">
-        <v>0.687391471887408</v>
+        <v>0.7019085465545284</v>
       </c>
       <c r="U11">
-        <v>0.7160974597414272</v>
+        <v>0.7019085465545284</v>
       </c>
       <c r="V11">
-        <v>0.7233015184089485</v>
+        <v>0.7019085465545284</v>
       </c>
       <c r="W11">
-        <v>0.8281738333517114</v>
+        <v>0.8438705038819585</v>
       </c>
       <c r="X11">
-        <v>0.8281738333517114</v>
+        <v>0.8438705038819585</v>
       </c>
       <c r="Y11">
-        <v>0.8757294501229428</v>
+        <v>0.8785796477846765</v>
       </c>
       <c r="Z11">
-        <v>0.8901213209215149</v>
+        <v>0.8785796477846765</v>
       </c>
       <c r="AA11">
-        <v>0.9840160498917112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.9840160498917112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.9840160498917112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.9840160498917112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.9841466553257274</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.9841466553257274</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.9841466553257274</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.9904124016339581</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2991,34 +2991,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5268475299130091</v>
       </c>
       <c r="F2">
-        <v>0.539546093907421</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>26</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3032,34 +3032,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.7234017965629842</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6800265670023279</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>26</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3073,34 +3073,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5352202461006618</v>
       </c>
       <c r="F4">
-        <v>0.5199698855198917</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>26</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3114,34 +3114,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0.006090512142646751</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.5045167618434395</v>
+      </c>
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5047485260117646</v>
-      </c>
       <c r="G5">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>26</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3155,34 +3155,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.6679339016391259</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.6183948209402954</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>26</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3196,34 +3196,34 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.6223970181399161</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>0.03380887104435321</v>
-      </c>
-      <c r="F7">
-        <v>0.5625345721794117</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>26</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3237,34 +3237,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.03557351274551014</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5230501135290415</v>
       </c>
       <c r="F8">
-        <v>0.512418773312178</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>26</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3278,34 +3278,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.553332573702995</v>
       </c>
       <c r="F9">
-        <v>0.5296657371886686</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>26</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3319,34 +3319,34 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.553782317234873</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0.01564894108911755</v>
-      </c>
-      <c r="F10">
-        <v>0.513834900707595</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>26</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3360,34 +3360,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.5194474801284769</v>
+      </c>
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5050042656626224</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>26</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3455,34 +3455,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7300363302929109</v>
       </c>
       <c r="F2">
-        <v>0.7280249912533985</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>26</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3496,34 +3496,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7234017965629842</v>
       </c>
       <c r="F3">
-        <v>0.758031076800877</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>26</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3537,34 +3537,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7363223067515745</v>
       </c>
       <c r="F4">
-        <v>0.7851086905990435</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>26</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3578,34 +3578,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0.006090512142646751</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.7758212105665806</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7479017879429738</v>
-      </c>
       <c r="G5">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>26</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3619,34 +3619,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.7931558229274565</v>
+      </c>
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7300743975400705</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>26</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3660,34 +3660,34 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.724336939512084</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0.03380887104435321</v>
-      </c>
-      <c r="F7">
-        <v>0.7057173180077601</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>26</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3701,34 +3701,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.03557351274551014</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8270057194525762</v>
+      </c>
+      <c r="F8">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8006219263956411</v>
-      </c>
       <c r="G8">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>26</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3742,34 +3742,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7265295598257048</v>
       </c>
       <c r="F9">
-        <v>0.7742394540623081</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>26</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3783,34 +3783,34 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0.01564894108911755</v>
+        <v>0.7084717855893251</v>
       </c>
       <c r="F10">
-        <v>0.7339340462634508</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>26</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3824,34 +3824,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7019085465545284</v>
       </c>
       <c r="F11">
-        <v>0.7160974597414272</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>26</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3919,34 +3919,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8108991219086747</v>
       </c>
       <c r="F2">
-        <v>0.8197989743971518</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>26</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3960,34 +3960,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8924241009595475</v>
+      </c>
+      <c r="F3">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8600403263301397</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>26</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4001,34 +4001,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8386563757588554</v>
       </c>
       <c r="F4">
-        <v>0.8588454582587746</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>26</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4042,34 +4042,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0.006090512142646751</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8943480297974484</v>
+      </c>
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8411775866357829</v>
-      </c>
       <c r="G5">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>26</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4083,34 +4083,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.925333882374802</v>
+      </c>
+      <c r="F6">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8388180930894696</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>26</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4124,34 +4124,34 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.915248546096996</v>
+      </c>
+      <c r="F7">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>0.03380887104435321</v>
-      </c>
-      <c r="F7">
-        <v>0.871749201720469</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>26</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4165,34 +4165,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.03557351274551014</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8270057194525762</v>
+      </c>
+      <c r="F8">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8006219263956411</v>
-      </c>
       <c r="G8">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>26</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4206,34 +4206,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8121197942511819</v>
       </c>
       <c r="F9">
-        <v>0.8692034772938025</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>26</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4247,34 +4247,34 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.8936918246762386</v>
+      </c>
+      <c r="F10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0.01564894108911755</v>
-      </c>
-      <c r="F10">
-        <v>0.8427280783626728</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>26</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4288,34 +4288,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.8438705038819585</v>
+      </c>
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8281738333517114</v>
-      </c>
       <c r="G11">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>26</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -4383,34 +4383,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9895396349903819</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>26</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -4424,34 +4424,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9891191730183286</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>26</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4465,34 +4465,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.911040664641495</v>
       </c>
       <c r="F4">
-        <v>0.9824667724000683</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>26</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4506,34 +4506,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0.006090512142646751</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9787636191185377</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9511315659713698</v>
-      </c>
       <c r="G5">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>26</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4547,34 +4547,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.925333882374802</v>
       </c>
       <c r="F6">
-        <v>0.9540340146097296</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>26</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4588,34 +4588,34 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.01332687309386039</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0.03380887104435321</v>
+        <v>0.915248546096996</v>
       </c>
       <c r="F7">
-        <v>0.9079815342126523</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>26</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4629,34 +4629,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.03557351274551014</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9730055174275151</v>
-      </c>
       <c r="G8">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>26</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4670,34 +4670,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9129982791321956</v>
       </c>
       <c r="F9">
-        <v>0.974789676086709</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>26</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4711,34 +4711,34 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0.01564894108911755</v>
+        <v>0.9325333252908806</v>
       </c>
       <c r="F10">
-        <v>0.9116598227729801</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>26</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4752,34 +4752,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F11">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9840160498917112</v>
-      </c>
       <c r="G11">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>26</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
